--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
@@ -1043,100 +1043,100 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.217234168501892</v>
+        <v>0.1855101302157196</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.0003334921374678853</v>
       </c>
       <c r="AT2">
-        <v>0.3504908067497713</v>
+        <v>0.2931722447545319</v>
       </c>
       <c r="AU2">
-        <v>0.05576483577687857</v>
+        <v>0.0550541167448662</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.0008720305778358457</v>
       </c>
       <c r="AW2">
-        <v>0.02176039529199773</v>
+        <v>0.02758088903592894</v>
       </c>
       <c r="AX2">
-        <v>0.1035894472977823</v>
+        <v>0.0936930834112767</v>
       </c>
       <c r="AY2">
-        <v>0.08734218701827105</v>
+        <v>0.08056642480609109</v>
       </c>
       <c r="AZ2">
-        <v>0.02560359552154</v>
+        <v>0.03068592806999864</v>
       </c>
       <c r="BA2">
-        <v>0.05249823195440134</v>
+        <v>0.05241492758691772</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>8.258035001023316E-05</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>3.562437923720743E-06</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.001370622543989393</v>
       </c>
       <c r="BE2">
-        <v>0.005825745498720536</v>
+        <v>0.01470679800574365</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.000242324724960168</v>
       </c>
       <c r="BG2">
-        <v>0.001917348700862494</v>
+        <v>0.01154908466968163</v>
       </c>
       <c r="BH2">
-        <v>0.002339254385138458</v>
+        <v>0.01188995517866596</v>
       </c>
       <c r="BI2">
-        <v>0.001556806186367774</v>
+        <v>0.01125779134274481</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>0.0003641510320740671</v>
       </c>
       <c r="BK2">
-        <v>0.009434243121141149</v>
+        <v>0.01762221362365387</v>
       </c>
       <c r="BL2">
-        <v>0.06464293399523534</v>
+        <v>0.06222700388834599</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.00698905910488077</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.006334590480410974</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.00238147732511947</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.003030060185850939</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.000592025103279056</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.005833224167473283</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.009251112056808647</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>2.654579767373007E-05</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.005257408722630057</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>7.821666042865158E-05</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.009026925257016555</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -1270,100 +1270,100 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.1453692865860276</v>
+        <v>0.1266888828353377</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>0.009993612290347951</v>
       </c>
       <c r="AT3">
-        <v>0.4097296600829234</v>
+        <v>0.3388926940649539</v>
       </c>
       <c r="AU3">
-        <v>0.1392020536359246</v>
+        <v>0.1217384043674742</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>4.820518024249865E-06</v>
       </c>
       <c r="AW3">
-        <v>0.03281280833733131</v>
+        <v>0.03633905715226413</v>
       </c>
       <c r="AX3">
-        <v>0.0351041378439834</v>
+        <v>0.038178322423616</v>
       </c>
       <c r="AY3">
-        <v>0.1174080381337903</v>
+        <v>0.1042442047248619</v>
       </c>
       <c r="AZ3">
-        <v>0.0326936125472606</v>
+        <v>0.03624337790729656</v>
       </c>
       <c r="BA3">
-        <v>0.02837291264631692</v>
+        <v>0.03277512366770856</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.0007237809307958869</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.0001917635580523174</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.000571827037146344</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>0.006629029886811191</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>0.001116288606595346</v>
       </c>
       <c r="BG3">
-        <v>0.003181866290207317</v>
+        <v>0.01255410500701597</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>0.004880086690905616</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>0.008447980830533603</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>0.001046254097595589</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.005426375420198712</v>
       </c>
       <c r="BL3">
-        <v>0.04016895415236196</v>
+        <v>0.04224388379954765</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.005566147228747345</v>
       </c>
       <c r="BN3">
-        <v>0.005342167077639329</v>
+        <v>0.01428819266331441</v>
       </c>
       <c r="BO3">
-        <v>0.006351985133841842</v>
+        <v>0.01509878026137276</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.001848997857283821</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>0.001809441227881593</v>
       </c>
       <c r="BR3">
-        <v>0.004262517532391602</v>
+        <v>0.01342155086952613</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.005799438642469433</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.001776304100636242</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>0.007869320935779151</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>0.0003210851616670585</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>0.003270865234238694</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -1497,100 +1497,100 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.2690150026122948</v>
+        <v>0.2228868794573051</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.0002612875957677651</v>
       </c>
       <c r="AT4">
-        <v>0.3353905939507546</v>
+        <v>0.2754136618856552</v>
       </c>
       <c r="AU4">
-        <v>0.07476234045099854</v>
+        <v>0.06916369423632408</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.002653133723354748</v>
       </c>
       <c r="AW4">
-        <v>0.02386556473686351</v>
+        <v>0.02888617940999909</v>
       </c>
       <c r="AX4">
-        <v>0.07050584440094641</v>
+        <v>0.06579528670247405</v>
       </c>
       <c r="AY4">
-        <v>0.0680924629307352</v>
+        <v>0.06388544061528832</v>
       </c>
       <c r="AZ4">
-        <v>0.03830617590257463</v>
+        <v>0.04031385674647511</v>
       </c>
       <c r="BA4">
-        <v>0.02085640974895528</v>
+        <v>0.02650486383667244</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>0.005769291926508898</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>0.0003127844548597388</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.0006865781199683466</v>
       </c>
       <c r="BE4">
-        <v>0.008864135052506812</v>
+        <v>0.01701469446719269</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.000221207281969456</v>
       </c>
       <c r="BG4">
-        <v>0.0003160175829059464</v>
+        <v>0.01025008269585413</v>
       </c>
       <c r="BH4">
-        <v>0.003246951125483205</v>
+        <v>0.01256949718841782</v>
       </c>
       <c r="BI4">
-        <v>0.01567707021917684</v>
+        <v>0.02240615774430819</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.001284178080742453</v>
       </c>
       <c r="BK4">
-        <v>0.004681406040617412</v>
+        <v>0.0137046629882421</v>
       </c>
       <c r="BL4">
-        <v>0.0566689991761491</v>
+        <v>0.05484540371142711</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.001862699235393045</v>
       </c>
       <c r="BN4">
-        <v>0.009171152382554873</v>
+        <v>0.01725765475081465</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.005374433599533499</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.002584336052816134</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>1.673144098125376E-05</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.009244444350198043</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.006503398471487745</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.0005233551413286973</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.009490987510482199</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.001854249533212625</v>
       </c>
       <c r="BW4">
-        <v>0.0005798736864826206</v>
+        <v>0.01045888704494523</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -1724,100 +1724,100 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.3364830122524743</v>
+        <v>0.2790235863430066</v>
       </c>
       <c r="AS5">
-        <v>0.009558906841397043</v>
+        <v>0.01764249993714927</v>
       </c>
       <c r="AT5">
-        <v>0.3430906671741263</v>
+        <v>0.2843065128492815</v>
       </c>
       <c r="AU5">
-        <v>0.06753004201185391</v>
+        <v>0.06399135595675008</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.002842204572098563</v>
       </c>
       <c r="AW5">
-        <v>0.0127349146499269</v>
+        <v>0.02018176932012482</v>
       </c>
       <c r="AX5">
-        <v>0.0707021574696042</v>
+        <v>0.06652751334260278</v>
       </c>
       <c r="AY5">
-        <v>0.07073621963472555</v>
+        <v>0.06655474659208604</v>
       </c>
       <c r="AZ5">
-        <v>0.03764013615558564</v>
+        <v>0.0400938949376047</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.003484902353351538</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.001327766402402036</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.0002016535077863487</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.004228997131545897</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.008406593558795991</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.0002436125385583057</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.001451210923706018</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.006310906773901344</v>
       </c>
       <c r="BI5">
-        <v>0.001966921476296481</v>
+        <v>0.01157258539165514</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.002756559991602931</v>
       </c>
       <c r="BK5">
-        <v>0.000531814394979118</v>
+        <v>0.01042519417205754</v>
       </c>
       <c r="BL5">
-        <v>0.03599579593237168</v>
+        <v>0.03877921845199015</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.002169078665614021</v>
       </c>
       <c r="BN5">
-        <v>0.006466729491490759</v>
+        <v>0.01517025435568074</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.004591456082886664</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.002133171977451864</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.002753105762914646</v>
       </c>
       <c r="BR5">
-        <v>0.0003175709722137674</v>
+        <v>0.01025390310581052</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.002551734280611797</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.001817685916026551</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.009598366520478897</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.003614891047131261</v>
       </c>
       <c r="BW5">
-        <v>0.006245111542954446</v>
+        <v>0.01499306723733527</v>
       </c>
     </row>
     <row r="6" spans="1:75">
@@ -1951,100 +1951,100 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.2621932205352391</v>
+        <v>0.223246777998668</v>
       </c>
       <c r="AS6">
-        <v>0.1533255193969241</v>
+        <v>0.1347025873881126</v>
       </c>
       <c r="AT6">
-        <v>0.2559555526332172</v>
+        <v>0.2181735629871719</v>
       </c>
       <c r="AU6">
-        <v>0.002142178735575715</v>
+        <v>0.01174227507609177</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.009195967321217115</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>0.0005034000952110847</v>
       </c>
       <c r="AX6">
-        <v>0.1432903213833831</v>
+        <v>0.1265407682587021</v>
       </c>
       <c r="AY6">
-        <v>0.05676811355763001</v>
+        <v>0.05617059619053</v>
       </c>
       <c r="AZ6">
-        <v>0.05297040957461657</v>
+        <v>0.05308185065959252</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>0.003202036977778243</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>0.003099623613695048</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>0.006534066280422819</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.001063958216731477</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.004403899190271915</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.005908773701796164</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>0.0004375472663692388</v>
       </c>
       <c r="BH6">
-        <v>0.007113782842906468</v>
+        <v>0.01578577610639678</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.006704223781297329</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>0.0003381909325252729</v>
       </c>
       <c r="BK6">
-        <v>0.02315254481328081</v>
+        <v>0.02883040901600405</v>
       </c>
       <c r="BL6">
-        <v>0.02754572501174548</v>
+        <v>0.03240346678072314</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>0.002475035819328574</v>
       </c>
       <c r="BN6">
-        <v>0.005177903234059887</v>
+        <v>0.01421128806915033</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.0008569314440542653</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.005954239813400096</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.003446600309258671</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>0.0005414345190897467</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>0.006211289686732841</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.003088568536573119</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>0.002111207253124406</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>0.0006038142897018868</v>
       </c>
       <c r="BW6">
-        <v>0.01036472828142171</v>
+        <v>0.0184298324202772</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -2058,34 +2058,34 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1940155542622882</v>
+        <v>0.2141662427798471</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3392474511816232</v>
+        <v>0.3871679896004062</v>
       </c>
       <c r="G7">
-        <v>0.0878140317965755</v>
+        <v>0.08765788413893537</v>
       </c>
       <c r="H7">
-        <v>0.01422679335881899</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.006273779470431455</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006028269844287938</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05838494078020766</v>
+        <v>0.05260164469588332</v>
       </c>
       <c r="L7">
-        <v>0.03377528596053066</v>
+        <v>0.02328636779896424</v>
       </c>
       <c r="M7">
-        <v>0.0907811810647124</v>
+        <v>0.09119238322180652</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2097,28 +2097,28 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.05819657903087144</v>
+        <v>0.05237726622007616</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.02865965913655799</v>
+        <v>0.0171925798956021</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.002216946208786374</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.003520056403477351</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.07664871420946667</v>
+        <v>0.07435764164847887</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.0002107572913639736</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2285,34 +2285,34 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1218159045639116</v>
+        <v>0.1433150653503592</v>
       </c>
       <c r="E8">
-        <v>0.03095808944869919</v>
+        <v>0.01903057524552943</v>
       </c>
       <c r="F8">
-        <v>0.2827305252042379</v>
+        <v>0.3634303251255923</v>
       </c>
       <c r="G8">
-        <v>0.07737304848583838</v>
+        <v>0.08252164103720015</v>
       </c>
       <c r="H8">
-        <v>0.03179960022952195</v>
+        <v>0.02018167862810198</v>
       </c>
       <c r="I8">
-        <v>0.04475661203244071</v>
+        <v>0.03790558716768117</v>
       </c>
       <c r="J8">
-        <v>0.002037863941753427</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.05361472734005675</v>
+        <v>0.05002261136533347</v>
       </c>
       <c r="L8">
-        <v>0.00387707837235264</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1250916925686556</v>
+        <v>0.1477960188197429</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01704584274972628</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.02930257723319407</v>
+        <v>0.01676599854064759</v>
       </c>
       <c r="R8">
-        <v>0.03265146082847361</v>
+        <v>0.02134693953655383</v>
       </c>
       <c r="S8">
-        <v>0.01040181385349309</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.02432374037668651</v>
+        <v>0.00995544295727244</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.08023883079763677</v>
+        <v>0.08644174733649491</v>
       </c>
       <c r="Y8">
-        <v>0.01090086718620399</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.00309348580104102</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01798623898607665</v>
+        <v>0.001286368889490695</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2512,46 +2512,46 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.228880639461207</v>
+        <v>0.2175217623657677</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2220206205905406</v>
+        <v>0.2111222630476129</v>
       </c>
       <c r="G9">
-        <v>0.07755878506523597</v>
+        <v>0.076358287120858</v>
       </c>
       <c r="H9">
-        <v>0.06425435874916403</v>
+        <v>0.06394699952189668</v>
       </c>
       <c r="I9">
-        <v>0.006196829658306252</v>
+        <v>0.009786927248713266</v>
       </c>
       <c r="J9">
-        <v>0.02164362545079477</v>
+        <v>0.02419676503566141</v>
       </c>
       <c r="K9">
-        <v>0.04953220788841547</v>
+        <v>0.05021316056731381</v>
       </c>
       <c r="L9">
-        <v>0.09930958203380956</v>
+        <v>0.09664893252489717</v>
       </c>
       <c r="M9">
-        <v>0.08108576812940003</v>
+        <v>0.07964850047738024</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02528139249364771</v>
+        <v>0.02759032533764375</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.04922445648771618</v>
+        <v>0.04992606880910338</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.001863680160861728</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0006678570338114117</v>
+        <v>0.004629119783802623</v>
       </c>
       <c r="X9">
-        <v>0.06685117302443166</v>
+        <v>0.0663694871997382</v>
       </c>
       <c r="Y9">
-        <v>0.005944307944490555</v>
+        <v>0.00955135755628969</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.001284495922850228</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.003891319993148007</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.001548395989028842</v>
+        <v>0.005450547326461153</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2739,46 +2739,46 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3184705040287059</v>
+        <v>0.297639405262477</v>
       </c>
       <c r="E10">
-        <v>0.00692402801008828</v>
+        <v>0.01166554811537407</v>
       </c>
       <c r="F10">
-        <v>0.1805447619958618</v>
+        <v>0.1710349995472551</v>
       </c>
       <c r="G10">
-        <v>0.07199324900159371</v>
+        <v>0.07139370279168006</v>
       </c>
       <c r="H10">
-        <v>0.06984664268961012</v>
+        <v>0.06942329601751522</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00175929601856919</v>
       </c>
       <c r="J10">
-        <v>0.01705057445501929</v>
+        <v>0.02096087889055879</v>
       </c>
       <c r="K10">
-        <v>0.0267521704450123</v>
+        <v>0.02986614035008938</v>
       </c>
       <c r="L10">
-        <v>0.123912119845524</v>
+        <v>0.1190509253791496</v>
       </c>
       <c r="M10">
-        <v>0.02194545950800035</v>
+        <v>0.02545397788747713</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03905954338684282</v>
+        <v>0.04116328919446545</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.05260869977936906</v>
+        <v>0.05360029237991797</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2787,22 +2787,22 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.002313002945110616</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.0009109516109801339</v>
       </c>
       <c r="W10">
-        <v>0.006816047173519204</v>
+        <v>0.01156643065230322</v>
       </c>
       <c r="X10">
-        <v>0.0528064404145689</v>
+        <v>0.05378180190262379</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1.957169006299603E-05</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2817,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.001598889207610982</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.001143030739219806</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01126975926628448</v>
+        <v>0.01565456941755978</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -3086,100 +3086,100 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.3520004947627225</v>
+        <v>0.2945010927386066</v>
       </c>
       <c r="AS11">
-        <v>0.1085204826728487</v>
+        <v>0.09771066053687859</v>
       </c>
       <c r="AT11">
-        <v>0.2421620607511594</v>
+        <v>0.2057252104147719</v>
       </c>
       <c r="AU11">
-        <v>0.006895485402914599</v>
+        <v>0.01557321129169069</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.00352068767261901</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.002273184648482908</v>
       </c>
       <c r="AX11">
-        <v>0.08466679715459408</v>
+        <v>0.07843114332949198</v>
       </c>
       <c r="AY11">
-        <v>0.0132682446850148</v>
+        <v>0.02072393410740649</v>
       </c>
       <c r="AZ11">
-        <v>0.05907027622311793</v>
+        <v>0.05774299577384605</v>
       </c>
       <c r="BA11">
-        <v>0.001052636461903585</v>
+        <v>0.0108507835304889</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>2.708553366157931E-05</v>
       </c>
       <c r="BC11">
-        <v>0.008387843701589636</v>
+        <v>0.01677939586542765</v>
       </c>
       <c r="BD11">
-        <v>0.003182275128318377</v>
+        <v>0.01257204397400565</v>
       </c>
       <c r="BE11">
-        <v>0.03111757290017159</v>
+        <v>0.03515048593735561</v>
       </c>
       <c r="BF11">
-        <v>0</v>
+        <v>0.008932756234424303</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>0.0007025625441254645</v>
       </c>
       <c r="BH11">
-        <v>0.008892936494895655</v>
+        <v>0.01718763237011445</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.002896729489078782</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>0.002594886153465553</v>
       </c>
       <c r="BK11">
-        <v>0.040155645371403</v>
+        <v>0.0424554230967461</v>
       </c>
       <c r="BL11">
-        <v>0.01546394672498496</v>
+        <v>0.02249858965191356</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>0.0001056410992753355</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.002250205809783782</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.0003939916443419537</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>0.0008161860692180302</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.002242357746053525</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>0.0002339532016064927</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>0.005944883694113478</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.001166639490389394</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>0.003642396199683159</v>
       </c>
       <c r="BV11">
-        <v>0</v>
+        <v>0.004015248078527668</v>
       </c>
       <c r="BW11">
-        <v>0.02516330156436128</v>
+        <v>0.0303380020724051</v>
       </c>
     </row>
   </sheetData>
@@ -3553,100 +3553,100 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.217234168501892</v>
+        <v>0.1855101302157196</v>
       </c>
       <c r="AS2">
-        <v>0.217234168501892</v>
+        <v>0.1858436223531875</v>
       </c>
       <c r="AT2">
-        <v>0.5677249752516633</v>
+        <v>0.4790158671077193</v>
       </c>
       <c r="AU2">
-        <v>0.6234898110285418</v>
+        <v>0.5340699838525855</v>
       </c>
       <c r="AV2">
-        <v>0.6234898110285418</v>
+        <v>0.5349420144304213</v>
       </c>
       <c r="AW2">
-        <v>0.6452502063205395</v>
+        <v>0.5625229034663503</v>
       </c>
       <c r="AX2">
-        <v>0.7488396536183218</v>
+        <v>0.6562159868776269</v>
       </c>
       <c r="AY2">
-        <v>0.8361818406365928</v>
+        <v>0.7367824116837181</v>
       </c>
       <c r="AZ2">
-        <v>0.8617854361581329</v>
+        <v>0.7674683397537166</v>
       </c>
       <c r="BA2">
-        <v>0.9142836681125341</v>
+        <v>0.8198832673406343</v>
       </c>
       <c r="BB2">
-        <v>0.9142836681125341</v>
+        <v>0.8199658476906445</v>
       </c>
       <c r="BC2">
-        <v>0.9142836681125341</v>
+        <v>0.8199694101285683</v>
       </c>
       <c r="BD2">
-        <v>0.9142836681125341</v>
+        <v>0.8213400326725576</v>
       </c>
       <c r="BE2">
-        <v>0.9201094136112546</v>
+        <v>0.8360468306783012</v>
       </c>
       <c r="BF2">
-        <v>0.9201094136112546</v>
+        <v>0.8362891554032614</v>
       </c>
       <c r="BG2">
-        <v>0.9220267623121171</v>
+        <v>0.8478382400729431</v>
       </c>
       <c r="BH2">
-        <v>0.9243660166972556</v>
+        <v>0.859728195251609</v>
       </c>
       <c r="BI2">
-        <v>0.9259228228836234</v>
+        <v>0.8709859865943539</v>
       </c>
       <c r="BJ2">
-        <v>0.9259228228836234</v>
+        <v>0.871350137626428</v>
       </c>
       <c r="BK2">
-        <v>0.9353570660047645</v>
+        <v>0.8889723512500819</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999999</v>
+        <v>0.9511993551384279</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999999</v>
+        <v>0.9581884142433087</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999999</v>
+        <v>0.9645230047237197</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999999</v>
+        <v>0.9669044820488392</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999999</v>
+        <v>0.9699345422346901</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9705265673379692</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999999</v>
+        <v>0.9763597915054425</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999999</v>
+        <v>0.9856109035622511</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999999</v>
+        <v>0.9856374493599248</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999999</v>
+        <v>0.9908948580825548</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999999</v>
+        <v>0.9909730747429835</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -3780,97 +3780,97 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.1453692865860276</v>
+        <v>0.1266888828353377</v>
       </c>
       <c r="AS3">
-        <v>0.1453692865860276</v>
+        <v>0.1366824951256856</v>
       </c>
       <c r="AT3">
-        <v>0.5550989466689511</v>
+        <v>0.4755751891906396</v>
       </c>
       <c r="AU3">
-        <v>0.6943010003048756</v>
+        <v>0.5973135935581138</v>
       </c>
       <c r="AV3">
-        <v>0.6943010003048756</v>
+        <v>0.5973184140761379</v>
       </c>
       <c r="AW3">
-        <v>0.727113808642207</v>
+        <v>0.6336574712284021</v>
       </c>
       <c r="AX3">
-        <v>0.7622179464861903</v>
+        <v>0.6718357936520181</v>
       </c>
       <c r="AY3">
-        <v>0.8796259846199806</v>
+        <v>0.77607999837688</v>
       </c>
       <c r="AZ3">
-        <v>0.9123195971672412</v>
+        <v>0.8123233762841766</v>
       </c>
       <c r="BA3">
-        <v>0.9406925098135581</v>
+        <v>0.8450984999518851</v>
       </c>
       <c r="BB3">
-        <v>0.9406925098135581</v>
+        <v>0.845822280882681</v>
       </c>
       <c r="BC3">
-        <v>0.9406925098135581</v>
+        <v>0.8460140444407332</v>
       </c>
       <c r="BD3">
-        <v>0.9406925098135581</v>
+        <v>0.8465858714778796</v>
       </c>
       <c r="BE3">
-        <v>0.9406925098135581</v>
+        <v>0.8532149013646908</v>
       </c>
       <c r="BF3">
-        <v>0.9406925098135581</v>
+        <v>0.8543311899712861</v>
       </c>
       <c r="BG3">
-        <v>0.9438743761037655</v>
+        <v>0.866885294978302</v>
       </c>
       <c r="BH3">
-        <v>0.9438743761037655</v>
+        <v>0.8717653816692077</v>
       </c>
       <c r="BI3">
-        <v>0.9438743761037655</v>
+        <v>0.8802133624997412</v>
       </c>
       <c r="BJ3">
-        <v>0.9438743761037655</v>
+        <v>0.8812596165973369</v>
       </c>
       <c r="BK3">
-        <v>0.9438743761037655</v>
+        <v>0.8866859920175356</v>
       </c>
       <c r="BL3">
-        <v>0.9840433302561274</v>
+        <v>0.9289298758170833</v>
       </c>
       <c r="BM3">
-        <v>0.9840433302561274</v>
+        <v>0.9344960230458307</v>
       </c>
       <c r="BN3">
-        <v>0.9893854973337668</v>
+        <v>0.9487842157091451</v>
       </c>
       <c r="BO3">
-        <v>0.9957374824676086</v>
+        <v>0.9638829959705179</v>
       </c>
       <c r="BP3">
-        <v>0.9957374824676086</v>
+        <v>0.9657319938278017</v>
       </c>
       <c r="BQ3">
-        <v>0.9957374824676086</v>
+        <v>0.9675414350556834</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0.9809629859252095</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0.9867624245676789</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0.9885387286683152</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0.9964080496040943</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0.9967291347657614</v>
       </c>
       <c r="BW3">
         <v>1</v>
@@ -4007,100 +4007,100 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.2690150026122948</v>
+        <v>0.2228868794573051</v>
       </c>
       <c r="AS4">
-        <v>0.2690150026122948</v>
+        <v>0.2231481670530729</v>
       </c>
       <c r="AT4">
-        <v>0.6044055965630494</v>
+        <v>0.498561828938728</v>
       </c>
       <c r="AU4">
-        <v>0.6791679370140479</v>
+        <v>0.5677255231750521</v>
       </c>
       <c r="AV4">
-        <v>0.6791679370140479</v>
+        <v>0.5703786568984068</v>
       </c>
       <c r="AW4">
-        <v>0.7030335017509114</v>
+        <v>0.5992648363084059</v>
       </c>
       <c r="AX4">
-        <v>0.7735393461518578</v>
+        <v>0.6650601230108799</v>
       </c>
       <c r="AY4">
-        <v>0.8416318090825931</v>
+        <v>0.7289455636261682</v>
       </c>
       <c r="AZ4">
-        <v>0.8799379849851677</v>
+        <v>0.7692594203726434</v>
       </c>
       <c r="BA4">
-        <v>0.900794394734123</v>
+        <v>0.7957642842093158</v>
       </c>
       <c r="BB4">
-        <v>0.900794394734123</v>
+        <v>0.8015335761358247</v>
       </c>
       <c r="BC4">
-        <v>0.900794394734123</v>
+        <v>0.8018463605906844</v>
       </c>
       <c r="BD4">
-        <v>0.900794394734123</v>
+        <v>0.8025329387106527</v>
       </c>
       <c r="BE4">
-        <v>0.9096585297866299</v>
+        <v>0.8195476331778454</v>
       </c>
       <c r="BF4">
-        <v>0.9096585297866299</v>
+        <v>0.8197688404598149</v>
       </c>
       <c r="BG4">
-        <v>0.9099745473695358</v>
+        <v>0.8300189231556691</v>
       </c>
       <c r="BH4">
-        <v>0.913221498495019</v>
+        <v>0.8425884203440869</v>
       </c>
       <c r="BI4">
-        <v>0.9288985687141958</v>
+        <v>0.8649945780883951</v>
       </c>
       <c r="BJ4">
-        <v>0.9288985687141958</v>
+        <v>0.8662787561691375</v>
       </c>
       <c r="BK4">
-        <v>0.9335799747548132</v>
+        <v>0.8799834191573797</v>
       </c>
       <c r="BL4">
-        <v>0.9902489739309623</v>
+        <v>0.9348288228688068</v>
       </c>
       <c r="BM4">
-        <v>0.9902489739309623</v>
+        <v>0.9366915221041998</v>
       </c>
       <c r="BN4">
-        <v>0.9994201263135172</v>
+        <v>0.9539491768550145</v>
       </c>
       <c r="BO4">
-        <v>0.9994201263135172</v>
+        <v>0.9593236104545479</v>
       </c>
       <c r="BP4">
-        <v>0.9994201263135172</v>
+        <v>0.9619079465073641</v>
       </c>
       <c r="BQ4">
-        <v>0.9994201263135172</v>
+        <v>0.9619246779483454</v>
       </c>
       <c r="BR4">
-        <v>0.9994201263135172</v>
+        <v>0.9711691222985434</v>
       </c>
       <c r="BS4">
-        <v>0.9994201263135172</v>
+        <v>0.9776725207700311</v>
       </c>
       <c r="BT4">
-        <v>0.9994201263135172</v>
+        <v>0.9781958759113598</v>
       </c>
       <c r="BU4">
-        <v>0.9994201263135172</v>
+        <v>0.987686863421842</v>
       </c>
       <c r="BV4">
-        <v>0.9994201263135172</v>
+        <v>0.9895411129550546</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -4234,100 +4234,100 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.3364830122524743</v>
+        <v>0.2790235863430066</v>
       </c>
       <c r="AS5">
-        <v>0.3460419190938713</v>
+        <v>0.2966660862801558</v>
       </c>
       <c r="AT5">
-        <v>0.6891325862679976</v>
+        <v>0.5809725991294374</v>
       </c>
       <c r="AU5">
-        <v>0.7566626282798514</v>
+        <v>0.6449639550861875</v>
       </c>
       <c r="AV5">
-        <v>0.7566626282798514</v>
+        <v>0.6478061596582861</v>
       </c>
       <c r="AW5">
-        <v>0.7693975429297784</v>
+        <v>0.667987928978411</v>
       </c>
       <c r="AX5">
-        <v>0.8400997003993825</v>
+        <v>0.7345154423210137</v>
       </c>
       <c r="AY5">
-        <v>0.9108359200341081</v>
+        <v>0.8010701889130998</v>
       </c>
       <c r="AZ5">
-        <v>0.9484760561896937</v>
+        <v>0.8411640838507045</v>
       </c>
       <c r="BA5">
-        <v>0.9484760561896937</v>
+        <v>0.844648986204056</v>
       </c>
       <c r="BB5">
-        <v>0.9484760561896937</v>
+        <v>0.8459767526064581</v>
       </c>
       <c r="BC5">
-        <v>0.9484760561896937</v>
+        <v>0.8461784061142444</v>
       </c>
       <c r="BD5">
-        <v>0.9484760561896937</v>
+        <v>0.8504074032457903</v>
       </c>
       <c r="BE5">
-        <v>0.9484760561896937</v>
+        <v>0.8588139968045864</v>
       </c>
       <c r="BF5">
-        <v>0.9484760561896937</v>
+        <v>0.8590576093431447</v>
       </c>
       <c r="BG5">
-        <v>0.9484760561896937</v>
+        <v>0.8605088202668507</v>
       </c>
       <c r="BH5">
-        <v>0.9484760561896937</v>
+        <v>0.8668197270407521</v>
       </c>
       <c r="BI5">
-        <v>0.9504429776659902</v>
+        <v>0.8783923124324072</v>
       </c>
       <c r="BJ5">
-        <v>0.9504429776659902</v>
+        <v>0.8811488724240102</v>
       </c>
       <c r="BK5">
-        <v>0.9509747920609692</v>
+        <v>0.8915740665960677</v>
       </c>
       <c r="BL5">
-        <v>0.9869705879933409</v>
+        <v>0.9303532850480579</v>
       </c>
       <c r="BM5">
-        <v>0.9869705879933409</v>
+        <v>0.9325223637136719</v>
       </c>
       <c r="BN5">
-        <v>0.9934373174848317</v>
+        <v>0.9476926180693527</v>
       </c>
       <c r="BO5">
-        <v>0.9934373174848317</v>
+        <v>0.9522840741522394</v>
       </c>
       <c r="BP5">
-        <v>0.9934373174848317</v>
+        <v>0.9544172461296913</v>
       </c>
       <c r="BQ5">
-        <v>0.9934373174848317</v>
+        <v>0.9571703518926059</v>
       </c>
       <c r="BR5">
-        <v>0.9937548884570454</v>
+        <v>0.9674242549984164</v>
       </c>
       <c r="BS5">
-        <v>0.9937548884570454</v>
+        <v>0.9699759892790283</v>
       </c>
       <c r="BT5">
-        <v>0.9937548884570454</v>
+        <v>0.9717936751950549</v>
       </c>
       <c r="BU5">
-        <v>0.9937548884570454</v>
+        <v>0.9813920417155337</v>
       </c>
       <c r="BV5">
-        <v>0.9937548884570454</v>
+        <v>0.985006932762665</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:75">
@@ -4461,100 +4461,100 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.2621932205352391</v>
+        <v>0.223246777998668</v>
       </c>
       <c r="AS6">
-        <v>0.4155187399321632</v>
+        <v>0.3579493653867806</v>
       </c>
       <c r="AT6">
-        <v>0.6714742925653803</v>
+        <v>0.5761229283739526</v>
       </c>
       <c r="AU6">
-        <v>0.673616471300956</v>
+        <v>0.5878652034500444</v>
       </c>
       <c r="AV6">
-        <v>0.673616471300956</v>
+        <v>0.5970611707712615</v>
       </c>
       <c r="AW6">
-        <v>0.673616471300956</v>
+        <v>0.5975645708664726</v>
       </c>
       <c r="AX6">
-        <v>0.8169067926843391</v>
+        <v>0.7241053391251748</v>
       </c>
       <c r="AY6">
-        <v>0.8736749062419691</v>
+        <v>0.7802759353157048</v>
       </c>
       <c r="AZ6">
-        <v>0.9266453158165856</v>
+        <v>0.8333577859752973</v>
       </c>
       <c r="BA6">
-        <v>0.9266453158165856</v>
+        <v>0.8365598229530755</v>
       </c>
       <c r="BB6">
-        <v>0.9266453158165856</v>
+        <v>0.8396594465667706</v>
       </c>
       <c r="BC6">
-        <v>0.9266453158165856</v>
+        <v>0.8461935128471935</v>
       </c>
       <c r="BD6">
-        <v>0.9266453158165856</v>
+        <v>0.8472574710639249</v>
       </c>
       <c r="BE6">
-        <v>0.9266453158165856</v>
+        <v>0.8516613702541969</v>
       </c>
       <c r="BF6">
-        <v>0.9266453158165856</v>
+        <v>0.8575701439559931</v>
       </c>
       <c r="BG6">
-        <v>0.9266453158165856</v>
+        <v>0.8580076912223623</v>
       </c>
       <c r="BH6">
-        <v>0.933759098659492</v>
+        <v>0.8737934673287591</v>
       </c>
       <c r="BI6">
-        <v>0.933759098659492</v>
+        <v>0.8804976911100564</v>
       </c>
       <c r="BJ6">
-        <v>0.933759098659492</v>
+        <v>0.8808358820425817</v>
       </c>
       <c r="BK6">
-        <v>0.9569116434727728</v>
+        <v>0.9096662910585858</v>
       </c>
       <c r="BL6">
-        <v>0.9844573684845183</v>
+        <v>0.9420697578393089</v>
       </c>
       <c r="BM6">
-        <v>0.9844573684845183</v>
+        <v>0.9445447936586375</v>
       </c>
       <c r="BN6">
-        <v>0.9896352717185781</v>
+        <v>0.9587560817277878</v>
       </c>
       <c r="BO6">
-        <v>0.9896352717185781</v>
+        <v>0.9596130131718421</v>
       </c>
       <c r="BP6">
-        <v>0.9896352717185781</v>
+        <v>0.9655672529852422</v>
       </c>
       <c r="BQ6">
-        <v>0.9896352717185781</v>
+        <v>0.9690138532945008</v>
       </c>
       <c r="BR6">
-        <v>0.9896352717185781</v>
+        <v>0.9695552878135906</v>
       </c>
       <c r="BS6">
-        <v>0.9896352717185781</v>
+        <v>0.9757665775003234</v>
       </c>
       <c r="BT6">
-        <v>0.9896352717185781</v>
+        <v>0.9788551460368965</v>
       </c>
       <c r="BU6">
-        <v>0.9896352717185781</v>
+        <v>0.9809663532900209</v>
       </c>
       <c r="BV6">
-        <v>0.9896352717185781</v>
+        <v>0.9815701675797228</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -4568,220 +4568,220 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1940155542622882</v>
+        <v>0.2141662427798471</v>
       </c>
       <c r="E7">
-        <v>0.1940155542622882</v>
+        <v>0.2141662427798471</v>
       </c>
       <c r="F7">
-        <v>0.5332630054439114</v>
+        <v>0.6013342323802533</v>
       </c>
       <c r="G7">
-        <v>0.6210770372404869</v>
+        <v>0.6889921165191887</v>
       </c>
       <c r="H7">
-        <v>0.635303830599306</v>
+        <v>0.6889921165191887</v>
       </c>
       <c r="I7">
-        <v>0.6415776100697375</v>
+        <v>0.6889921165191887</v>
       </c>
       <c r="J7">
-        <v>0.6476058799140254</v>
+        <v>0.6889921165191887</v>
       </c>
       <c r="K7">
-        <v>0.705990820694233</v>
+        <v>0.741593761215072</v>
       </c>
       <c r="L7">
-        <v>0.7397661066547637</v>
+        <v>0.7648801290140362</v>
       </c>
       <c r="M7">
-        <v>0.8305472877194762</v>
+        <v>0.8560725122358428</v>
       </c>
       <c r="N7">
-        <v>0.8305472877194762</v>
+        <v>0.8560725122358428</v>
       </c>
       <c r="O7">
-        <v>0.8305472877194762</v>
+        <v>0.8560725122358428</v>
       </c>
       <c r="P7">
-        <v>0.8305472877194762</v>
+        <v>0.8560725122358428</v>
       </c>
       <c r="Q7">
-        <v>0.8887438667503476</v>
+        <v>0.908449778455919</v>
       </c>
       <c r="R7">
-        <v>0.8887438667503476</v>
+        <v>0.908449778455919</v>
       </c>
       <c r="S7">
-        <v>0.9174035258869055</v>
+        <v>0.9256423583515211</v>
       </c>
       <c r="T7">
-        <v>0.9174035258869055</v>
+        <v>0.9256423583515211</v>
       </c>
       <c r="U7">
-        <v>0.919620472095692</v>
+        <v>0.9256423583515211</v>
       </c>
       <c r="V7">
-        <v>0.919620472095692</v>
+        <v>0.9256423583515211</v>
       </c>
       <c r="W7">
-        <v>0.9231405284991693</v>
+        <v>0.9256423583515211</v>
       </c>
       <c r="X7">
-        <v>0.9997892427086359</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9997892427086359</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9997892427086359</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9997892427086359</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9997892427086359</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9997892427086359</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:75">
@@ -4795,82 +4795,82 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1218159045639116</v>
+        <v>0.1433150653503592</v>
       </c>
       <c r="E8">
-        <v>0.1527739940126108</v>
+        <v>0.1623456405958886</v>
       </c>
       <c r="F8">
-        <v>0.4355045192168486</v>
+        <v>0.5257759657214809</v>
       </c>
       <c r="G8">
-        <v>0.512877567702687</v>
+        <v>0.6082976067586811</v>
       </c>
       <c r="H8">
-        <v>0.544677167932209</v>
+        <v>0.628479285386783</v>
       </c>
       <c r="I8">
-        <v>0.5894337799646497</v>
+        <v>0.6663848725544642</v>
       </c>
       <c r="J8">
-        <v>0.5914716439064032</v>
+        <v>0.6663848725544642</v>
       </c>
       <c r="K8">
-        <v>0.64508637124646</v>
+        <v>0.7164074839197977</v>
       </c>
       <c r="L8">
-        <v>0.6489634496188126</v>
+        <v>0.7164074839197977</v>
       </c>
       <c r="M8">
-        <v>0.7740551421874682</v>
+        <v>0.8642035027395406</v>
       </c>
       <c r="N8">
-        <v>0.7740551421874682</v>
+        <v>0.8642035027395406</v>
       </c>
       <c r="O8">
-        <v>0.7740551421874682</v>
+        <v>0.8642035027395406</v>
       </c>
       <c r="P8">
-        <v>0.7911009849371945</v>
+        <v>0.8642035027395406</v>
       </c>
       <c r="Q8">
-        <v>0.8204035621703886</v>
+        <v>0.8809695012801882</v>
       </c>
       <c r="R8">
-        <v>0.8530550229988622</v>
+        <v>0.9023164408167421</v>
       </c>
       <c r="S8">
-        <v>0.8634568368523552</v>
+        <v>0.9023164408167421</v>
       </c>
       <c r="T8">
-        <v>0.8634568368523552</v>
+        <v>0.9023164408167421</v>
       </c>
       <c r="U8">
-        <v>0.8877805772290417</v>
+        <v>0.9122718837740146</v>
       </c>
       <c r="V8">
-        <v>0.8877805772290417</v>
+        <v>0.9122718837740146</v>
       </c>
       <c r="W8">
-        <v>0.8877805772290417</v>
+        <v>0.9122718837740146</v>
       </c>
       <c r="X8">
-        <v>0.9680194080266784</v>
+        <v>0.9987136311105095</v>
       </c>
       <c r="Y8">
-        <v>0.9789202752128824</v>
+        <v>0.9987136311105095</v>
       </c>
       <c r="Z8">
-        <v>0.9820137610139235</v>
+        <v>0.9987136311105095</v>
       </c>
       <c r="AA8">
-        <v>0.9820137610139235</v>
+        <v>0.9987136311105095</v>
       </c>
       <c r="AB8">
-        <v>0.9820137610139235</v>
+        <v>0.9987136311105095</v>
       </c>
       <c r="AC8">
-        <v>0.9820137610139235</v>
+        <v>0.9987136311105095</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -5022,220 +5022,220 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.228880639461207</v>
+        <v>0.2175217623657677</v>
       </c>
       <c r="E9">
-        <v>0.228880639461207</v>
+        <v>0.2175217623657677</v>
       </c>
       <c r="F9">
-        <v>0.4509012600517476</v>
+        <v>0.4286440254133806</v>
       </c>
       <c r="G9">
-        <v>0.5284600451169836</v>
+        <v>0.5050023125342387</v>
       </c>
       <c r="H9">
-        <v>0.5927144038661477</v>
+        <v>0.5689493120561353</v>
       </c>
       <c r="I9">
-        <v>0.598911233524454</v>
+        <v>0.5787362393048485</v>
       </c>
       <c r="J9">
-        <v>0.6205548589752488</v>
+        <v>0.6029330043405099</v>
       </c>
       <c r="K9">
-        <v>0.6700870668636643</v>
+        <v>0.6531461649078237</v>
       </c>
       <c r="L9">
-        <v>0.7693966488974738</v>
+        <v>0.7497950974327209</v>
       </c>
       <c r="M9">
-        <v>0.8504824170268739</v>
+        <v>0.8294435979101011</v>
       </c>
       <c r="N9">
-        <v>0.8504824170268739</v>
+        <v>0.8294435979101011</v>
       </c>
       <c r="O9">
-        <v>0.8757638095205216</v>
+        <v>0.8570339232477449</v>
       </c>
       <c r="P9">
-        <v>0.8757638095205216</v>
+        <v>0.8570339232477449</v>
       </c>
       <c r="Q9">
-        <v>0.9249882660082378</v>
+        <v>0.9069599920568482</v>
       </c>
       <c r="R9">
-        <v>0.9249882660082378</v>
+        <v>0.9069599920568482</v>
       </c>
       <c r="S9">
-        <v>0.9249882660082378</v>
+        <v>0.9069599920568482</v>
       </c>
       <c r="T9">
-        <v>0.9249882660082378</v>
+        <v>0.9069599920568482</v>
       </c>
       <c r="U9">
-        <v>0.9249882660082378</v>
+        <v>0.9088236722177099</v>
       </c>
       <c r="V9">
-        <v>0.9249882660082378</v>
+        <v>0.9088236722177099</v>
       </c>
       <c r="W9">
-        <v>0.9256561230420493</v>
+        <v>0.9134527920015125</v>
       </c>
       <c r="X9">
-        <v>0.9925072960664809</v>
+        <v>0.9798222792012508</v>
       </c>
       <c r="Y9">
-        <v>0.9984516040109714</v>
+        <v>0.9893736367575404</v>
       </c>
       <c r="Z9">
-        <v>0.9984516040109714</v>
+        <v>0.9893736367575404</v>
       </c>
       <c r="AA9">
-        <v>0.9984516040109714</v>
+        <v>0.9893736367575404</v>
       </c>
       <c r="AB9">
-        <v>0.9984516040109714</v>
+        <v>0.9893736367575404</v>
       </c>
       <c r="AC9">
-        <v>0.9984516040109714</v>
+        <v>0.9893736367575404</v>
       </c>
       <c r="AD9">
-        <v>0.9984516040109714</v>
+        <v>0.9906581326803906</v>
       </c>
       <c r="AE9">
-        <v>0.9984516040109714</v>
+        <v>0.9945494526735386</v>
       </c>
       <c r="AF9">
-        <v>0.9984516040109714</v>
+        <v>0.9945494526735386</v>
       </c>
       <c r="AG9">
-        <v>0.9984516040109714</v>
+        <v>0.9945494526735386</v>
       </c>
       <c r="AH9">
-        <v>0.9984516040109714</v>
+        <v>0.9945494526735386</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:75">
@@ -5249,97 +5249,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3184705040287059</v>
+        <v>0.297639405262477</v>
       </c>
       <c r="E10">
-        <v>0.3253945320387941</v>
+        <v>0.309304953377851</v>
       </c>
       <c r="F10">
-        <v>0.5059392940346559</v>
+        <v>0.4803399529251061</v>
       </c>
       <c r="G10">
-        <v>0.5779325430362496</v>
+        <v>0.5517336557167862</v>
       </c>
       <c r="H10">
-        <v>0.6477791857258598</v>
+        <v>0.6211569517343014</v>
       </c>
       <c r="I10">
-        <v>0.6477791857258598</v>
+        <v>0.6229162477528706</v>
       </c>
       <c r="J10">
-        <v>0.6648297601808791</v>
+        <v>0.6438771266434293</v>
       </c>
       <c r="K10">
-        <v>0.6915819306258915</v>
+        <v>0.6737432669935187</v>
       </c>
       <c r="L10">
-        <v>0.8154940504714154</v>
+        <v>0.7927941923726683</v>
       </c>
       <c r="M10">
-        <v>0.8374395099794157</v>
+        <v>0.8182481702601455</v>
       </c>
       <c r="N10">
-        <v>0.8374395099794157</v>
+        <v>0.8182481702601455</v>
       </c>
       <c r="O10">
-        <v>0.8764990533662586</v>
+        <v>0.8594114594546109</v>
       </c>
       <c r="P10">
-        <v>0.8764990533662586</v>
+        <v>0.8594114594546109</v>
       </c>
       <c r="Q10">
-        <v>0.9291077531456277</v>
+        <v>0.9130117518345289</v>
       </c>
       <c r="R10">
-        <v>0.9291077531456277</v>
+        <v>0.9130117518345289</v>
       </c>
       <c r="S10">
-        <v>0.9291077531456277</v>
+        <v>0.9130117518345289</v>
       </c>
       <c r="T10">
-        <v>0.9291077531456277</v>
+        <v>0.9153247547796395</v>
       </c>
       <c r="U10">
-        <v>0.9291077531456277</v>
+        <v>0.9153247547796395</v>
       </c>
       <c r="V10">
-        <v>0.9291077531456277</v>
+        <v>0.9162357063906196</v>
       </c>
       <c r="W10">
-        <v>0.9359238003191469</v>
+        <v>0.9278021370429228</v>
       </c>
       <c r="X10">
-        <v>0.9887302407337158</v>
+        <v>0.9815839389455466</v>
       </c>
       <c r="Y10">
-        <v>0.9887302407337158</v>
+        <v>0.9816035106356096</v>
       </c>
       <c r="Z10">
-        <v>0.9887302407337158</v>
+        <v>0.9816035106356096</v>
       </c>
       <c r="AA10">
-        <v>0.9887302407337158</v>
+        <v>0.9816035106356096</v>
       </c>
       <c r="AB10">
-        <v>0.9887302407337158</v>
+        <v>0.9816035106356096</v>
       </c>
       <c r="AC10">
-        <v>0.9887302407337158</v>
+        <v>0.9816035106356096</v>
       </c>
       <c r="AD10">
-        <v>0.9887302407337158</v>
+        <v>0.9832023998432206</v>
       </c>
       <c r="AE10">
-        <v>0.9887302407337158</v>
+        <v>0.9843454305824404</v>
       </c>
       <c r="AF10">
-        <v>0.9887302407337158</v>
+        <v>0.9843454305824404</v>
       </c>
       <c r="AG10">
-        <v>0.9887302407337158</v>
+        <v>0.9843454305824404</v>
       </c>
       <c r="AH10">
-        <v>0.9887302407337158</v>
+        <v>0.9843454305824404</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -5596,100 +5596,100 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.3520004947627225</v>
+        <v>0.2945010927386066</v>
       </c>
       <c r="AS11">
-        <v>0.4605209774355712</v>
+        <v>0.3922117532754852</v>
       </c>
       <c r="AT11">
-        <v>0.7026830381867306</v>
+        <v>0.5979369636902571</v>
       </c>
       <c r="AU11">
-        <v>0.7095785235896452</v>
+        <v>0.6135101749819477</v>
       </c>
       <c r="AV11">
-        <v>0.7095785235896452</v>
+        <v>0.6170308626545667</v>
       </c>
       <c r="AW11">
-        <v>0.7095785235896452</v>
+        <v>0.6193040473030497</v>
       </c>
       <c r="AX11">
-        <v>0.7942453207442393</v>
+        <v>0.6977351906325416</v>
       </c>
       <c r="AY11">
-        <v>0.807513565429254</v>
+        <v>0.7184591247399481</v>
       </c>
       <c r="AZ11">
-        <v>0.8665838416523719</v>
+        <v>0.7762021205137941</v>
       </c>
       <c r="BA11">
-        <v>0.8676364781142755</v>
+        <v>0.787052904044283</v>
       </c>
       <c r="BB11">
-        <v>0.8676364781142755</v>
+        <v>0.7870799895779446</v>
       </c>
       <c r="BC11">
-        <v>0.8760243218158651</v>
+        <v>0.8038593854433722</v>
       </c>
       <c r="BD11">
-        <v>0.8792065969441835</v>
+        <v>0.8164314294173779</v>
       </c>
       <c r="BE11">
-        <v>0.910324169844355</v>
+        <v>0.8515819153547335</v>
       </c>
       <c r="BF11">
-        <v>0.910324169844355</v>
+        <v>0.8605146715891578</v>
       </c>
       <c r="BG11">
-        <v>0.910324169844355</v>
+        <v>0.8612172341332833</v>
       </c>
       <c r="BH11">
-        <v>0.9192171063392507</v>
+        <v>0.8784048665033978</v>
       </c>
       <c r="BI11">
-        <v>0.9192171063392507</v>
+        <v>0.8813015959924766</v>
       </c>
       <c r="BJ11">
-        <v>0.9192171063392507</v>
+        <v>0.8838964821459422</v>
       </c>
       <c r="BK11">
-        <v>0.9593727517106537</v>
+        <v>0.9263519052426883</v>
       </c>
       <c r="BL11">
-        <v>0.9748366984356387</v>
+        <v>0.9488504948946018</v>
       </c>
       <c r="BM11">
-        <v>0.9748366984356387</v>
+        <v>0.9489561359938772</v>
       </c>
       <c r="BN11">
-        <v>0.9748366984356387</v>
+        <v>0.9512063418036609</v>
       </c>
       <c r="BO11">
-        <v>0.9748366984356387</v>
+        <v>0.9516003334480029</v>
       </c>
       <c r="BP11">
-        <v>0.9748366984356387</v>
+        <v>0.9524165195172209</v>
       </c>
       <c r="BQ11">
-        <v>0.9748366984356387</v>
+        <v>0.9546588772632745</v>
       </c>
       <c r="BR11">
-        <v>0.9748366984356387</v>
+        <v>0.9548928304648809</v>
       </c>
       <c r="BS11">
-        <v>0.9748366984356387</v>
+        <v>0.9608377141589944</v>
       </c>
       <c r="BT11">
-        <v>0.9748366984356387</v>
+        <v>0.9620043536493839</v>
       </c>
       <c r="BU11">
-        <v>0.9748366984356387</v>
+        <v>0.9656467498490671</v>
       </c>
       <c r="BV11">
-        <v>0.9748366984356387</v>
+        <v>0.9696619979275948</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5757,16 +5757,16 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5677249752516633</v>
+        <v>0.5340699838525855</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -5798,16 +5798,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5550989466689511</v>
+        <v>0.5973135935581138</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -5839,16 +5839,16 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6044055965630494</v>
+        <v>0.5677255231750521</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6891325862679976</v>
+        <v>0.5809725991294374</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6714742925653803</v>
+        <v>0.5761229283739526</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5332630054439114</v>
+        <v>0.6013342323802533</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -6003,16 +6003,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.512877567702687</v>
+        <v>0.5257759657214809</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5284600451169836</v>
+        <v>0.5050023125342387</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6085,16 +6085,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.5517336557167862</v>
+      </c>
+      <c r="G10">
         <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5059392940346559</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7026830381867306</v>
+        <v>0.5979369636902571</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6221,16 +6221,16 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7488396536183218</v>
+        <v>0.7367824116837181</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -6262,16 +6262,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.727113808642207</v>
+        <v>0.77607999837688</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -6303,16 +6303,16 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7030335017509114</v>
+        <v>0.7289455636261682</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -6344,16 +6344,16 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7566626282798514</v>
+        <v>0.7345154423210137</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8169067926843391</v>
+        <v>0.7241053391251748</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.705990820694233</v>
+        <v>0.741593761215072</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -6467,16 +6467,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7740551421874682</v>
+        <v>0.7164074839197977</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7693966488974738</v>
+        <v>0.7497950974327209</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8154940504714154</v>
+        <v>0.7927941923726683</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -6590,16 +6590,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7026830381867306</v>
+        <v>0.7184591247399481</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -6685,16 +6685,16 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8361818406365928</v>
+        <v>0.8198832673406343</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -6726,16 +6726,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8796259846199806</v>
+        <v>0.8123233762841766</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -6767,16 +6767,16 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8416318090825931</v>
+        <v>0.8015335761358247</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -6808,16 +6808,16 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8400997003993825</v>
+        <v>0.8010701889130998</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -6849,16 +6849,16 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8169067926843391</v>
+        <v>0.8333577859752973</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8305472877194762</v>
+        <v>0.8560725122358428</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -6931,16 +6931,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8204035621703886</v>
+        <v>0.8642035027395406</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8504824170268739</v>
+        <v>0.8294435979101011</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -7013,16 +7013,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8182481702601455</v>
+      </c>
+      <c r="G10">
         <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8154940504714154</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -7054,16 +7054,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.807513565429254</v>
+        <v>0.8038593854433722</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -7149,16 +7149,16 @@
         <v>41</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9142836681125341</v>
+        <v>0.9511993551384279</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -7190,16 +7190,16 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9123195971672412</v>
+        <v>0.9289298758170833</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -7231,16 +7231,16 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.900794394734123</v>
+        <v>0.9348288228688068</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -7272,16 +7272,16 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9108359200341081</v>
+        <v>0.9303532850480579</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -7313,16 +7313,16 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9266453158165856</v>
+        <v>0.9096662910585858</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -7354,16 +7354,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9174035258869055</v>
+        <v>0.908449778455919</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>14</v>
@@ -7395,16 +7395,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9680194080266784</v>
+        <v>0.9023164408167421</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9249882660082378</v>
+        <v>0.9069599920568482</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9291077531456277</v>
+        <v>0.9130117518345289</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -7518,16 +7518,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.910324169844355</v>
+        <v>0.9263519052426883</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>14</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
@@ -1948,103 +1948,103 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.009721307704564801</v>
       </c>
       <c r="AR6">
-        <v>0.223246777998668</v>
+        <v>0.2252274311889522</v>
       </c>
       <c r="AS6">
-        <v>0.1347025873881126</v>
+        <v>0.1358976734352286</v>
       </c>
       <c r="AT6">
-        <v>0.2181735629871719</v>
+        <v>0.2201092064371697</v>
       </c>
       <c r="AU6">
-        <v>0.01174227507609177</v>
+        <v>0.01184645294956054</v>
       </c>
       <c r="AV6">
-        <v>0.009195967321217115</v>
+        <v>0.00927755426359452</v>
       </c>
       <c r="AW6">
-        <v>0.0005034000952110847</v>
+        <v>0.000507866278389662</v>
       </c>
       <c r="AX6">
-        <v>0.1265407682587021</v>
+        <v>0.1276634423622187</v>
       </c>
       <c r="AY6">
-        <v>0.05617059619053</v>
+        <v>0.05666894367640326</v>
       </c>
       <c r="AZ6">
-        <v>0.05308185065959252</v>
+        <v>0.0535527946875316</v>
       </c>
       <c r="BA6">
-        <v>0.003202036977778243</v>
+        <v>0.003230445561374833</v>
       </c>
       <c r="BB6">
-        <v>0.003099623613695048</v>
+        <v>0.003127123582358345</v>
       </c>
       <c r="BC6">
-        <v>0.006534066280422819</v>
+        <v>0.00659203674404996</v>
       </c>
       <c r="BD6">
-        <v>0.001063958216731477</v>
+        <v>0.001073397691088912</v>
       </c>
       <c r="BE6">
-        <v>0.004403899190271915</v>
+        <v>0.004442970737279658</v>
       </c>
       <c r="BF6">
-        <v>0.005908773701796164</v>
+        <v>0.005961196547886244</v>
       </c>
       <c r="BG6">
-        <v>0.0004375472663692388</v>
+        <v>0.0004414292009566197</v>
       </c>
       <c r="BH6">
-        <v>0.01578577610639678</v>
+        <v>0.01592582806184508</v>
       </c>
       <c r="BI6">
-        <v>0.006704223781297329</v>
+        <v>0.006763703888198962</v>
       </c>
       <c r="BJ6">
-        <v>0.0003381909325252729</v>
+        <v>0.0003411913742581223</v>
       </c>
       <c r="BK6">
-        <v>0.02883040901600405</v>
+        <v>0.02908619340898234</v>
       </c>
       <c r="BL6">
-        <v>0.03240346678072314</v>
+        <v>0.03269095146664273</v>
       </c>
       <c r="BM6">
-        <v>0.002475035819328574</v>
+        <v>0.002496994423325315</v>
       </c>
       <c r="BN6">
-        <v>0.01421128806915033</v>
+        <v>0.01433737111189139</v>
       </c>
       <c r="BO6">
-        <v>0.0008569314440542653</v>
+        <v>0.0008645341696735846</v>
       </c>
       <c r="BP6">
-        <v>0.005954239813400096</v>
+        <v>0.006007066036415949</v>
       </c>
       <c r="BQ6">
-        <v>0.003446600309258671</v>
+        <v>0.00347717866725051</v>
       </c>
       <c r="BR6">
-        <v>0.0005414345190897467</v>
+        <v>0.0005462381450017476</v>
       </c>
       <c r="BS6">
-        <v>0.006211289686732841</v>
+        <v>0.006266396465178174</v>
       </c>
       <c r="BT6">
-        <v>0.003088568536573119</v>
+        <v>0.003115970424207133</v>
       </c>
       <c r="BU6">
-        <v>0.002111207253124406</v>
+        <v>0.002129937957409316</v>
       </c>
       <c r="BV6">
-        <v>0.0006038142897018868</v>
+        <v>0.0006091713511115005</v>
       </c>
       <c r="BW6">
-        <v>0.0184298324202772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -3083,103 +3083,103 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.003326798909701525</v>
       </c>
       <c r="AR11">
-        <v>0.2945010927386066</v>
+        <v>0.3027048058516318</v>
       </c>
       <c r="AS11">
-        <v>0.09771066053687859</v>
+        <v>0.1004325187808486</v>
       </c>
       <c r="AT11">
-        <v>0.2057252104147719</v>
+        <v>0.2114559552166512</v>
       </c>
       <c r="AU11">
-        <v>0.01557321129169069</v>
+        <v>0.01600702346025521</v>
       </c>
       <c r="AV11">
-        <v>0.00352068767261901</v>
+        <v>0.00361876103240911</v>
       </c>
       <c r="AW11">
-        <v>0.002273184648482908</v>
+        <v>0.002336507179939995</v>
       </c>
       <c r="AX11">
-        <v>0.07843114332949198</v>
+        <v>0.08061594540617836</v>
       </c>
       <c r="AY11">
-        <v>0.02072393410740649</v>
+        <v>0.02130122639657739</v>
       </c>
       <c r="AZ11">
-        <v>0.05774299577384605</v>
+        <v>0.05935150244256566</v>
       </c>
       <c r="BA11">
-        <v>0.0108507835304889</v>
+        <v>0.011153046297353</v>
       </c>
       <c r="BB11">
-        <v>2.708553366157931E-05</v>
+        <v>2.784003662659889E-05</v>
       </c>
       <c r="BC11">
-        <v>0.01677939586542765</v>
+        <v>0.01724680788284936</v>
       </c>
       <c r="BD11">
-        <v>0.01257204397400565</v>
+        <v>0.0129222547017418</v>
       </c>
       <c r="BE11">
-        <v>0.03515048593735561</v>
+        <v>0.03612964869608071</v>
       </c>
       <c r="BF11">
-        <v>0.008932756234424303</v>
+        <v>0.009181589842389377</v>
       </c>
       <c r="BG11">
-        <v>0.0007025625441254645</v>
+        <v>0.0007221333426660258</v>
       </c>
       <c r="BH11">
-        <v>0.01718763237011445</v>
+        <v>0.01766641634930232</v>
       </c>
       <c r="BI11">
-        <v>0.002896729489078782</v>
+        <v>0.002977421677598215</v>
       </c>
       <c r="BJ11">
-        <v>0.002594886153465553</v>
+        <v>0.002667170101093848</v>
       </c>
       <c r="BK11">
-        <v>0.0424554230967461</v>
+        <v>0.04363807443409427</v>
       </c>
       <c r="BL11">
-        <v>0.02249858965191356</v>
+        <v>0.02312531729232948</v>
       </c>
       <c r="BM11">
-        <v>0.0001056410992753355</v>
+        <v>0.0001085838702625002</v>
       </c>
       <c r="BN11">
-        <v>0.002250205809783782</v>
+        <v>0.002312888235635131</v>
       </c>
       <c r="BO11">
-        <v>0.0003939916443419537</v>
+        <v>0.0004049667968925057</v>
       </c>
       <c r="BP11">
-        <v>0.0008161860692180302</v>
+        <v>0.0008389219996570237</v>
       </c>
       <c r="BQ11">
-        <v>0.002242357746053525</v>
+        <v>0.00230482155382527</v>
       </c>
       <c r="BR11">
-        <v>0.0002339532016064927</v>
+        <v>0.0002404702740221015</v>
       </c>
       <c r="BS11">
-        <v>0.005944883694113478</v>
+        <v>0.006110486204662043</v>
       </c>
       <c r="BT11">
-        <v>0.001166639490389394</v>
+        <v>0.001199137759229352</v>
       </c>
       <c r="BU11">
-        <v>0.003642396199683159</v>
+        <v>0.003743859909675896</v>
       </c>
       <c r="BV11">
-        <v>0.004015248078527668</v>
+        <v>0.004127098065254554</v>
       </c>
       <c r="BW11">
-        <v>0.0303380020724051</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4458,103 +4458,103 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.009721307704564801</v>
       </c>
       <c r="AR6">
-        <v>0.223246777998668</v>
+        <v>0.2349487388935171</v>
       </c>
       <c r="AS6">
-        <v>0.3579493653867806</v>
+        <v>0.3708464123287457</v>
       </c>
       <c r="AT6">
-        <v>0.5761229283739526</v>
+        <v>0.5909556187659153</v>
       </c>
       <c r="AU6">
-        <v>0.5878652034500444</v>
+        <v>0.6028020717154758</v>
       </c>
       <c r="AV6">
-        <v>0.5970611707712615</v>
+        <v>0.6120796259790704</v>
       </c>
       <c r="AW6">
-        <v>0.5975645708664726</v>
+        <v>0.61258749225746</v>
       </c>
       <c r="AX6">
-        <v>0.7241053391251748</v>
+        <v>0.7402509346196787</v>
       </c>
       <c r="AY6">
-        <v>0.7802759353157048</v>
+        <v>0.796919878296082</v>
       </c>
       <c r="AZ6">
-        <v>0.8333577859752973</v>
+        <v>0.8504726729836136</v>
       </c>
       <c r="BA6">
-        <v>0.8365598229530755</v>
+        <v>0.8537031185449885</v>
       </c>
       <c r="BB6">
-        <v>0.8396594465667706</v>
+        <v>0.8568302421273468</v>
       </c>
       <c r="BC6">
-        <v>0.8461935128471935</v>
+        <v>0.8634222788713968</v>
       </c>
       <c r="BD6">
-        <v>0.8472574710639249</v>
+        <v>0.8644956765624857</v>
       </c>
       <c r="BE6">
-        <v>0.8516613702541969</v>
+        <v>0.8689386472997653</v>
       </c>
       <c r="BF6">
-        <v>0.8575701439559931</v>
+        <v>0.8748998438476516</v>
       </c>
       <c r="BG6">
-        <v>0.8580076912223623</v>
+        <v>0.8753412730486082</v>
       </c>
       <c r="BH6">
-        <v>0.8737934673287591</v>
+        <v>0.8912671011104533</v>
       </c>
       <c r="BI6">
-        <v>0.8804976911100564</v>
+        <v>0.8980308049986522</v>
       </c>
       <c r="BJ6">
-        <v>0.8808358820425817</v>
+        <v>0.8983719963729103</v>
       </c>
       <c r="BK6">
-        <v>0.9096662910585858</v>
+        <v>0.9274581897818927</v>
       </c>
       <c r="BL6">
-        <v>0.9420697578393089</v>
+        <v>0.9601491412485353</v>
       </c>
       <c r="BM6">
-        <v>0.9445447936586375</v>
+        <v>0.9626461356718606</v>
       </c>
       <c r="BN6">
-        <v>0.9587560817277878</v>
+        <v>0.976983506783752</v>
       </c>
       <c r="BO6">
-        <v>0.9596130131718421</v>
+        <v>0.9778480409534256</v>
       </c>
       <c r="BP6">
-        <v>0.9655672529852422</v>
+        <v>0.9838551069898416</v>
       </c>
       <c r="BQ6">
-        <v>0.9690138532945008</v>
+        <v>0.9873322856570921</v>
       </c>
       <c r="BR6">
-        <v>0.9695552878135906</v>
+        <v>0.9878785238020938</v>
       </c>
       <c r="BS6">
-        <v>0.9757665775003234</v>
+        <v>0.994144920267272</v>
       </c>
       <c r="BT6">
-        <v>0.9788551460368965</v>
+        <v>0.9972608906914791</v>
       </c>
       <c r="BU6">
-        <v>0.9809663532900209</v>
+        <v>0.9993908286488884</v>
       </c>
       <c r="BV6">
-        <v>0.9815701675797228</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -5593,103 +5593,103 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.003326798909701525</v>
       </c>
       <c r="AR11">
-        <v>0.2945010927386066</v>
+        <v>0.3060316047613333</v>
       </c>
       <c r="AS11">
-        <v>0.3922117532754852</v>
+        <v>0.4064641235421819</v>
       </c>
       <c r="AT11">
-        <v>0.5979369636902571</v>
+        <v>0.6179200787588331</v>
       </c>
       <c r="AU11">
-        <v>0.6135101749819477</v>
+        <v>0.6339271022190883</v>
       </c>
       <c r="AV11">
-        <v>0.6170308626545667</v>
+        <v>0.6375458632514974</v>
       </c>
       <c r="AW11">
-        <v>0.6193040473030497</v>
+        <v>0.6398823704314374</v>
       </c>
       <c r="AX11">
-        <v>0.6977351906325416</v>
+        <v>0.7204983158376157</v>
       </c>
       <c r="AY11">
-        <v>0.7184591247399481</v>
+        <v>0.7417995422341931</v>
       </c>
       <c r="AZ11">
-        <v>0.7762021205137941</v>
+        <v>0.8011510446767588</v>
       </c>
       <c r="BA11">
-        <v>0.787052904044283</v>
+        <v>0.8123040909741118</v>
       </c>
       <c r="BB11">
-        <v>0.7870799895779446</v>
+        <v>0.8123319310107384</v>
       </c>
       <c r="BC11">
-        <v>0.8038593854433722</v>
+        <v>0.8295787388935878</v>
       </c>
       <c r="BD11">
-        <v>0.8164314294173779</v>
+        <v>0.8425009935953296</v>
       </c>
       <c r="BE11">
-        <v>0.8515819153547335</v>
+        <v>0.8786306422914103</v>
       </c>
       <c r="BF11">
-        <v>0.8605146715891578</v>
+        <v>0.8878122321337997</v>
       </c>
       <c r="BG11">
-        <v>0.8612172341332833</v>
+        <v>0.8885343654764657</v>
       </c>
       <c r="BH11">
-        <v>0.8784048665033978</v>
+        <v>0.906200781825768</v>
       </c>
       <c r="BI11">
-        <v>0.8813015959924766</v>
+        <v>0.9091782035033662</v>
       </c>
       <c r="BJ11">
-        <v>0.8838964821459422</v>
+        <v>0.9118453736044601</v>
       </c>
       <c r="BK11">
-        <v>0.9263519052426883</v>
+        <v>0.9554834480385543</v>
       </c>
       <c r="BL11">
-        <v>0.9488504948946018</v>
+        <v>0.9786087653308838</v>
       </c>
       <c r="BM11">
-        <v>0.9489561359938772</v>
+        <v>0.9787173492011463</v>
       </c>
       <c r="BN11">
-        <v>0.9512063418036609</v>
+        <v>0.9810302374367814</v>
       </c>
       <c r="BO11">
-        <v>0.9516003334480029</v>
+        <v>0.9814352042336739</v>
       </c>
       <c r="BP11">
-        <v>0.9524165195172209</v>
+        <v>0.982274126233331</v>
       </c>
       <c r="BQ11">
-        <v>0.9546588772632745</v>
+        <v>0.9845789477871563</v>
       </c>
       <c r="BR11">
-        <v>0.9548928304648809</v>
+        <v>0.9848194180611783</v>
       </c>
       <c r="BS11">
-        <v>0.9608377141589944</v>
+        <v>0.9909299042658404</v>
       </c>
       <c r="BT11">
-        <v>0.9620043536493839</v>
+        <v>0.9921290420250697</v>
       </c>
       <c r="BU11">
-        <v>0.9656467498490671</v>
+        <v>0.9958729019347455</v>
       </c>
       <c r="BV11">
-        <v>0.9696619979275948</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5761229283739526</v>
+        <v>0.5909556187659153</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5979369636902571</v>
+        <v>0.6179200787588331</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7241053391251748</v>
+        <v>0.7402509346196787</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -6590,16 +6590,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7184591247399481</v>
+        <v>0.7204983158376157</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8333577859752973</v>
+        <v>0.8504726729836136</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -7054,16 +7054,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8038593854433722</v>
+        <v>0.8011510446767588</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9096662910585858</v>
+        <v>0.9274581897818927</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -7518,16 +7518,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9263519052426883</v>
+        <v>0.906200781825768</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>14</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
@@ -1948,103 +1948,103 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.009721307704564801</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.2252274311889522</v>
+        <v>0.223246777998668</v>
       </c>
       <c r="AS6">
-        <v>0.1358976734352286</v>
+        <v>0.1347025873881126</v>
       </c>
       <c r="AT6">
-        <v>0.2201092064371697</v>
+        <v>0.2181735629871719</v>
       </c>
       <c r="AU6">
-        <v>0.01184645294956054</v>
+        <v>0.01174227507609177</v>
       </c>
       <c r="AV6">
-        <v>0.00927755426359452</v>
+        <v>0.009195967321217115</v>
       </c>
       <c r="AW6">
-        <v>0.000507866278389662</v>
+        <v>0.0005034000952110847</v>
       </c>
       <c r="AX6">
-        <v>0.1276634423622187</v>
+        <v>0.1265407682587021</v>
       </c>
       <c r="AY6">
-        <v>0.05666894367640326</v>
+        <v>0.05617059619053</v>
       </c>
       <c r="AZ6">
-        <v>0.0535527946875316</v>
+        <v>0.05308185065959252</v>
       </c>
       <c r="BA6">
-        <v>0.003230445561374833</v>
+        <v>0.003202036977778243</v>
       </c>
       <c r="BB6">
-        <v>0.003127123582358345</v>
+        <v>0.003099623613695048</v>
       </c>
       <c r="BC6">
-        <v>0.00659203674404996</v>
+        <v>0.006534066280422819</v>
       </c>
       <c r="BD6">
-        <v>0.001073397691088912</v>
+        <v>0.001063958216731477</v>
       </c>
       <c r="BE6">
-        <v>0.004442970737279658</v>
+        <v>0.004403899190271915</v>
       </c>
       <c r="BF6">
-        <v>0.005961196547886244</v>
+        <v>0.005908773701796164</v>
       </c>
       <c r="BG6">
-        <v>0.0004414292009566197</v>
+        <v>0.0004375472663692388</v>
       </c>
       <c r="BH6">
-        <v>0.01592582806184508</v>
+        <v>0.01578577610639678</v>
       </c>
       <c r="BI6">
-        <v>0.006763703888198962</v>
+        <v>0.006704223781297329</v>
       </c>
       <c r="BJ6">
-        <v>0.0003411913742581223</v>
+        <v>0.0003381909325252729</v>
       </c>
       <c r="BK6">
-        <v>0.02908619340898234</v>
+        <v>0.02883040901600405</v>
       </c>
       <c r="BL6">
-        <v>0.03269095146664273</v>
+        <v>0.03240346678072314</v>
       </c>
       <c r="BM6">
-        <v>0.002496994423325315</v>
+        <v>0.002475035819328574</v>
       </c>
       <c r="BN6">
-        <v>0.01433737111189139</v>
+        <v>0.01421128806915033</v>
       </c>
       <c r="BO6">
-        <v>0.0008645341696735846</v>
+        <v>0.0008569314440542653</v>
       </c>
       <c r="BP6">
-        <v>0.006007066036415949</v>
+        <v>0.005954239813400096</v>
       </c>
       <c r="BQ6">
-        <v>0.00347717866725051</v>
+        <v>0.003446600309258671</v>
       </c>
       <c r="BR6">
-        <v>0.0005462381450017476</v>
+        <v>0.0005414345190897467</v>
       </c>
       <c r="BS6">
-        <v>0.006266396465178174</v>
+        <v>0.006211289686732841</v>
       </c>
       <c r="BT6">
-        <v>0.003115970424207133</v>
+        <v>0.003088568536573119</v>
       </c>
       <c r="BU6">
-        <v>0.002129937957409316</v>
+        <v>0.002111207253124406</v>
       </c>
       <c r="BV6">
-        <v>0.0006091713511115005</v>
+        <v>0.0006038142897018868</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>0.0184298324202772</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -3083,103 +3083,103 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.003326798909701525</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.3027048058516318</v>
+        <v>0.2945010927386066</v>
       </c>
       <c r="AS11">
-        <v>0.1004325187808486</v>
+        <v>0.09771066053687859</v>
       </c>
       <c r="AT11">
-        <v>0.2114559552166512</v>
+        <v>0.2057252104147719</v>
       </c>
       <c r="AU11">
-        <v>0.01600702346025521</v>
+        <v>0.01557321129169069</v>
       </c>
       <c r="AV11">
-        <v>0.00361876103240911</v>
+        <v>0.00352068767261901</v>
       </c>
       <c r="AW11">
-        <v>0.002336507179939995</v>
+        <v>0.002273184648482908</v>
       </c>
       <c r="AX11">
-        <v>0.08061594540617836</v>
+        <v>0.07843114332949198</v>
       </c>
       <c r="AY11">
-        <v>0.02130122639657739</v>
+        <v>0.02072393410740649</v>
       </c>
       <c r="AZ11">
-        <v>0.05935150244256566</v>
+        <v>0.05774299577384605</v>
       </c>
       <c r="BA11">
-        <v>0.011153046297353</v>
+        <v>0.0108507835304889</v>
       </c>
       <c r="BB11">
-        <v>2.784003662659889E-05</v>
+        <v>2.708553366157931E-05</v>
       </c>
       <c r="BC11">
-        <v>0.01724680788284936</v>
+        <v>0.01677939586542765</v>
       </c>
       <c r="BD11">
-        <v>0.0129222547017418</v>
+        <v>0.01257204397400565</v>
       </c>
       <c r="BE11">
-        <v>0.03612964869608071</v>
+        <v>0.03515048593735561</v>
       </c>
       <c r="BF11">
-        <v>0.009181589842389377</v>
+        <v>0.008932756234424303</v>
       </c>
       <c r="BG11">
-        <v>0.0007221333426660258</v>
+        <v>0.0007025625441254645</v>
       </c>
       <c r="BH11">
-        <v>0.01766641634930232</v>
+        <v>0.01718763237011445</v>
       </c>
       <c r="BI11">
-        <v>0.002977421677598215</v>
+        <v>0.002896729489078782</v>
       </c>
       <c r="BJ11">
-        <v>0.002667170101093848</v>
+        <v>0.002594886153465553</v>
       </c>
       <c r="BK11">
-        <v>0.04363807443409427</v>
+        <v>0.0424554230967461</v>
       </c>
       <c r="BL11">
-        <v>0.02312531729232948</v>
+        <v>0.02249858965191356</v>
       </c>
       <c r="BM11">
-        <v>0.0001085838702625002</v>
+        <v>0.0001056410992753355</v>
       </c>
       <c r="BN11">
-        <v>0.002312888235635131</v>
+        <v>0.002250205809783782</v>
       </c>
       <c r="BO11">
-        <v>0.0004049667968925057</v>
+        <v>0.0003939916443419537</v>
       </c>
       <c r="BP11">
-        <v>0.0008389219996570237</v>
+        <v>0.0008161860692180302</v>
       </c>
       <c r="BQ11">
-        <v>0.00230482155382527</v>
+        <v>0.002242357746053525</v>
       </c>
       <c r="BR11">
-        <v>0.0002404702740221015</v>
+        <v>0.0002339532016064927</v>
       </c>
       <c r="BS11">
-        <v>0.006110486204662043</v>
+        <v>0.005944883694113478</v>
       </c>
       <c r="BT11">
-        <v>0.001199137759229352</v>
+        <v>0.001166639490389394</v>
       </c>
       <c r="BU11">
-        <v>0.003743859909675896</v>
+        <v>0.003642396199683159</v>
       </c>
       <c r="BV11">
-        <v>0.004127098065254554</v>
+        <v>0.004015248078527668</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>0.0303380020724051</v>
       </c>
     </row>
   </sheetData>
@@ -4458,103 +4458,103 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.009721307704564801</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.2349487388935171</v>
+        <v>0.223246777998668</v>
       </c>
       <c r="AS6">
-        <v>0.3708464123287457</v>
+        <v>0.3579493653867806</v>
       </c>
       <c r="AT6">
-        <v>0.5909556187659153</v>
+        <v>0.5761229283739526</v>
       </c>
       <c r="AU6">
-        <v>0.6028020717154758</v>
+        <v>0.5878652034500444</v>
       </c>
       <c r="AV6">
-        <v>0.6120796259790704</v>
+        <v>0.5970611707712615</v>
       </c>
       <c r="AW6">
-        <v>0.61258749225746</v>
+        <v>0.5975645708664726</v>
       </c>
       <c r="AX6">
-        <v>0.7402509346196787</v>
+        <v>0.7241053391251748</v>
       </c>
       <c r="AY6">
-        <v>0.796919878296082</v>
+        <v>0.7802759353157048</v>
       </c>
       <c r="AZ6">
-        <v>0.8504726729836136</v>
+        <v>0.8333577859752973</v>
       </c>
       <c r="BA6">
-        <v>0.8537031185449885</v>
+        <v>0.8365598229530755</v>
       </c>
       <c r="BB6">
-        <v>0.8568302421273468</v>
+        <v>0.8396594465667706</v>
       </c>
       <c r="BC6">
-        <v>0.8634222788713968</v>
+        <v>0.8461935128471935</v>
       </c>
       <c r="BD6">
-        <v>0.8644956765624857</v>
+        <v>0.8472574710639249</v>
       </c>
       <c r="BE6">
-        <v>0.8689386472997653</v>
+        <v>0.8516613702541969</v>
       </c>
       <c r="BF6">
-        <v>0.8748998438476516</v>
+        <v>0.8575701439559931</v>
       </c>
       <c r="BG6">
-        <v>0.8753412730486082</v>
+        <v>0.8580076912223623</v>
       </c>
       <c r="BH6">
-        <v>0.8912671011104533</v>
+        <v>0.8737934673287591</v>
       </c>
       <c r="BI6">
-        <v>0.8980308049986522</v>
+        <v>0.8804976911100564</v>
       </c>
       <c r="BJ6">
-        <v>0.8983719963729103</v>
+        <v>0.8808358820425817</v>
       </c>
       <c r="BK6">
-        <v>0.9274581897818927</v>
+        <v>0.9096662910585858</v>
       </c>
       <c r="BL6">
-        <v>0.9601491412485353</v>
+        <v>0.9420697578393089</v>
       </c>
       <c r="BM6">
-        <v>0.9626461356718606</v>
+        <v>0.9445447936586375</v>
       </c>
       <c r="BN6">
-        <v>0.976983506783752</v>
+        <v>0.9587560817277878</v>
       </c>
       <c r="BO6">
-        <v>0.9778480409534256</v>
+        <v>0.9596130131718421</v>
       </c>
       <c r="BP6">
-        <v>0.9838551069898416</v>
+        <v>0.9655672529852422</v>
       </c>
       <c r="BQ6">
-        <v>0.9873322856570921</v>
+        <v>0.9690138532945008</v>
       </c>
       <c r="BR6">
-        <v>0.9878785238020938</v>
+        <v>0.9695552878135906</v>
       </c>
       <c r="BS6">
-        <v>0.994144920267272</v>
+        <v>0.9757665775003234</v>
       </c>
       <c r="BT6">
-        <v>0.9972608906914791</v>
+        <v>0.9788551460368965</v>
       </c>
       <c r="BU6">
-        <v>0.9993908286488884</v>
+        <v>0.9809663532900209</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999999</v>
+        <v>0.9815701675797228</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -5593,103 +5593,103 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.003326798909701525</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.3060316047613333</v>
+        <v>0.2945010927386066</v>
       </c>
       <c r="AS11">
-        <v>0.4064641235421819</v>
+        <v>0.3922117532754852</v>
       </c>
       <c r="AT11">
-        <v>0.6179200787588331</v>
+        <v>0.5979369636902571</v>
       </c>
       <c r="AU11">
-        <v>0.6339271022190883</v>
+        <v>0.6135101749819477</v>
       </c>
       <c r="AV11">
-        <v>0.6375458632514974</v>
+        <v>0.6170308626545667</v>
       </c>
       <c r="AW11">
-        <v>0.6398823704314374</v>
+        <v>0.6193040473030497</v>
       </c>
       <c r="AX11">
-        <v>0.7204983158376157</v>
+        <v>0.6977351906325416</v>
       </c>
       <c r="AY11">
-        <v>0.7417995422341931</v>
+        <v>0.7184591247399481</v>
       </c>
       <c r="AZ11">
-        <v>0.8011510446767588</v>
+        <v>0.7762021205137941</v>
       </c>
       <c r="BA11">
-        <v>0.8123040909741118</v>
+        <v>0.787052904044283</v>
       </c>
       <c r="BB11">
-        <v>0.8123319310107384</v>
+        <v>0.7870799895779446</v>
       </c>
       <c r="BC11">
-        <v>0.8295787388935878</v>
+        <v>0.8038593854433722</v>
       </c>
       <c r="BD11">
-        <v>0.8425009935953296</v>
+        <v>0.8164314294173779</v>
       </c>
       <c r="BE11">
-        <v>0.8786306422914103</v>
+        <v>0.8515819153547335</v>
       </c>
       <c r="BF11">
-        <v>0.8878122321337997</v>
+        <v>0.8605146715891578</v>
       </c>
       <c r="BG11">
-        <v>0.8885343654764657</v>
+        <v>0.8612172341332833</v>
       </c>
       <c r="BH11">
-        <v>0.906200781825768</v>
+        <v>0.8784048665033978</v>
       </c>
       <c r="BI11">
-        <v>0.9091782035033662</v>
+        <v>0.8813015959924766</v>
       </c>
       <c r="BJ11">
-        <v>0.9118453736044601</v>
+        <v>0.8838964821459422</v>
       </c>
       <c r="BK11">
-        <v>0.9554834480385543</v>
+        <v>0.9263519052426883</v>
       </c>
       <c r="BL11">
-        <v>0.9786087653308838</v>
+        <v>0.9488504948946018</v>
       </c>
       <c r="BM11">
-        <v>0.9787173492011463</v>
+        <v>0.9489561359938772</v>
       </c>
       <c r="BN11">
-        <v>0.9810302374367814</v>
+        <v>0.9512063418036609</v>
       </c>
       <c r="BO11">
-        <v>0.9814352042336739</v>
+        <v>0.9516003334480029</v>
       </c>
       <c r="BP11">
-        <v>0.982274126233331</v>
+        <v>0.9524165195172209</v>
       </c>
       <c r="BQ11">
-        <v>0.9845789477871563</v>
+        <v>0.9546588772632745</v>
       </c>
       <c r="BR11">
-        <v>0.9848194180611783</v>
+        <v>0.9548928304648809</v>
       </c>
       <c r="BS11">
-        <v>0.9909299042658404</v>
+        <v>0.9608377141589944</v>
       </c>
       <c r="BT11">
-        <v>0.9921290420250697</v>
+        <v>0.9620043536493839</v>
       </c>
       <c r="BU11">
-        <v>0.9958729019347455</v>
+        <v>0.9656467498490671</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0.9696619979275948</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5909556187659153</v>
+        <v>0.5761229283739526</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6179200787588331</v>
+        <v>0.5979369636902571</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7402509346196787</v>
+        <v>0.7241053391251748</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -6590,16 +6590,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7204983158376157</v>
+        <v>0.7184591247399481</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8504726729836136</v>
+        <v>0.8333577859752973</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -7054,16 +7054,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8011510446767588</v>
+        <v>0.8038593854433722</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9274581897818927</v>
+        <v>0.9096662910585858</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -7518,16 +7518,16 @@
         <v>41</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.906200781825768</v>
+        <v>0.9263519052426883</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>14</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/14_245-70R19.xlsx
@@ -276,40 +276,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>245-70R19.5</t>
@@ -319,9 +322,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1043,100 +1043,100 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.1855101302157196</v>
+        <v>0.2535530418597089</v>
       </c>
       <c r="AS2">
-        <v>0.0003334921374678853</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.2931722447545319</v>
+        <v>0.4290918096332108</v>
       </c>
       <c r="AU2">
-        <v>0.0550541167448662</v>
+        <v>0.0408497343739408</v>
       </c>
       <c r="AV2">
-        <v>0.0008720305778358457</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.02758088903592894</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0936930834112767</v>
+        <v>0.1038490227096531</v>
       </c>
       <c r="AY2">
-        <v>0.08056642480609109</v>
+        <v>0.08244653134666728</v>
       </c>
       <c r="AZ2">
-        <v>0.03068592806999864</v>
+        <v>0.001118378258727295</v>
       </c>
       <c r="BA2">
-        <v>0.05241492758691772</v>
+        <v>0.03654664210520731</v>
       </c>
       <c r="BB2">
-        <v>8.258035001023316E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>3.562437923720743E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001370622543989393</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01470679800574365</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.000242324724960168</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01154908466968163</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01188995517866596</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01125779134274481</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0003641510320740671</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.01762221362365387</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.06222700388834599</v>
+        <v>0.05254483971288455</v>
       </c>
       <c r="BM2">
-        <v>0.00698905910488077</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.006334590480410974</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.00238147732511947</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.003030060185850939</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.000592025103279056</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.005833224167473283</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.009251112056808647</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>2.654579767373007E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.005257408722630057</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>7.821666042865158E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.009026925257016555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -1270,100 +1270,100 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.1266888828353377</v>
+        <v>0.1591995486004312</v>
       </c>
       <c r="AS3">
-        <v>0.009993612290347951</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.3388926940649539</v>
+        <v>0.5085959835202393</v>
       </c>
       <c r="AU3">
-        <v>0.1217384043674742</v>
+        <v>0.1510485190887737</v>
       </c>
       <c r="AV3">
-        <v>4.820518024249865E-06</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.03633905715226413</v>
+        <v>0.01043734302847849</v>
       </c>
       <c r="AX3">
-        <v>0.038178322423616</v>
+        <v>0.01346571808431946</v>
       </c>
       <c r="AY3">
-        <v>0.1042442047248619</v>
+        <v>0.1222440836194686</v>
       </c>
       <c r="AZ3">
-        <v>0.03624337790729656</v>
+        <v>0.01027980586223355</v>
       </c>
       <c r="BA3">
-        <v>0.03277512366770856</v>
+        <v>0.004569278517386157</v>
       </c>
       <c r="BB3">
-        <v>0.0007237809307958869</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0001917635580523174</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000571827037146344</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.006629029886811191</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001116288606595346</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01255410500701597</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.004880086690905616</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008447980830533603</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001046254097595589</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.005426375420198712</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.04224388379954765</v>
+        <v>0.02015971967866942</v>
       </c>
       <c r="BM3">
-        <v>0.005566147228747345</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01428819266331441</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01509878026137276</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001848997857283821</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001809441227881593</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01342155086952613</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005799438642469433</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001776304100636242</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.007869320935779151</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0003210851616670585</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.003270865234238694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -1497,100 +1497,100 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.2228868794573051</v>
+        <v>0.3312476051538598</v>
       </c>
       <c r="AS4">
-        <v>0.0002612875957677651</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.2754136618856552</v>
+        <v>0.4214526566056881</v>
       </c>
       <c r="AU4">
-        <v>0.06916369423632408</v>
+        <v>0.06725641454338462</v>
       </c>
       <c r="AV4">
-        <v>0.002653133723354748</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.02888617940999909</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.06579528670247405</v>
+        <v>0.06147179647133468</v>
       </c>
       <c r="AY4">
-        <v>0.06388544061528832</v>
+        <v>0.05819198840780711</v>
       </c>
       <c r="AZ4">
-        <v>0.04031385674647511</v>
+        <v>0.01771214484252194</v>
       </c>
       <c r="BA4">
-        <v>0.02650486383667244</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.005769291926508898</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0003127844548597388</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0006865781199683466</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01701469446719269</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.000221207281969456</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01025008269585413</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.01256949718841782</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.02240615774430819</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.001284178080742453</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0137046629882421</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.05484540371142711</v>
+        <v>0.04266739397540373</v>
       </c>
       <c r="BM4">
-        <v>0.001862699235393045</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.01725765475081465</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.005374433599533499</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.002584336052816134</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.673144098125376E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.009244444350198043</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006503398471487745</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0005233551413286973</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.009490987510482199</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001854249533212625</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01045888704494523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -1724,100 +1724,100 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.2790235863430066</v>
+        <v>0.3957297886641696</v>
       </c>
       <c r="AS5">
-        <v>0.01764249993714927</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.2843065128492815</v>
+        <v>0.4041250231098616</v>
       </c>
       <c r="AU5">
-        <v>0.06399135595675008</v>
+        <v>0.05401653837980331</v>
       </c>
       <c r="AV5">
-        <v>0.002842204572098563</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.02018176932012482</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.06652751334260278</v>
+        <v>0.05804681133932992</v>
       </c>
       <c r="AY5">
-        <v>0.06655474659208604</v>
+        <v>0.0580900883968204</v>
       </c>
       <c r="AZ5">
-        <v>0.0400938949376047</v>
+        <v>0.01604046817057183</v>
       </c>
       <c r="BA5">
-        <v>0.003484902353351538</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001327766402402036</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0002016535077863487</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.004228997131545897</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.008406593558795991</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0002436125385583057</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001451210923706018</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.006310906773901344</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01157258539165514</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.002756559991602931</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01042519417205754</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.03877921845199015</v>
+        <v>0.01395128193944353</v>
       </c>
       <c r="BM5">
-        <v>0.002169078665614021</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01517025435568074</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.004591456082886664</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.002133171977451864</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.002753105762914646</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01025390310581052</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.002551734280611797</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001817685916026551</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.009598366520478897</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.003614891047131261</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01499306723733527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:75">
@@ -1951,100 +1951,100 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.223246777998668</v>
+        <v>0.30465206320579</v>
       </c>
       <c r="AS6">
-        <v>0.1347025873881126</v>
+        <v>0.1650628258909077</v>
       </c>
       <c r="AT6">
-        <v>0.2181735629871719</v>
+        <v>0.2966541786545168</v>
       </c>
       <c r="AU6">
-        <v>0.01174227507609177</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.009195967321217115</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0005034000952110847</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.1265407682587021</v>
+        <v>0.1521957806390354</v>
       </c>
       <c r="AY6">
-        <v>0.05617059619053</v>
+        <v>0.04125774415149894</v>
       </c>
       <c r="AZ6">
-        <v>0.05308185065959252</v>
+        <v>0.03638836051435362</v>
       </c>
       <c r="BA6">
-        <v>0.003202036977778243</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.003099623613695048</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.006534066280422819</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001063958216731477</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.004403899190271915</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.005908773701796164</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0004375472663692388</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01578577610639678</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.006704223781297329</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0003381909325252729</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.02883040901600405</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.03240346678072314</v>
+        <v>0.003789046943897481</v>
       </c>
       <c r="BM6">
-        <v>0.002475035819328574</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01421128806915033</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0008569314440542653</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.005954239813400096</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.003446600309258671</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0005414345190897467</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.006211289686732841</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.003088568536573119</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002111207253124406</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0006038142897018868</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0184298324202772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:75">
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2141662427798471</v>
+        <v>0.2276000048372286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3871679896004062</v>
+        <v>0.4231534117708358</v>
       </c>
       <c r="G7">
-        <v>0.08765788413893537</v>
+        <v>0.08460063637727391</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2079,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05260164469588332</v>
+        <v>0.04497463731450346</v>
       </c>
       <c r="L7">
-        <v>0.02328636779896424</v>
+        <v>0.01183796454818359</v>
       </c>
       <c r="M7">
-        <v>0.09119238322180652</v>
+        <v>0.08859587544370989</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2097,13 +2097,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.05237726622007616</v>
+        <v>0.04472100995990704</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0171925798956021</v>
+        <v>0.004949820309563357</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.07435764164847887</v>
+        <v>0.06956663943879442</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2285,34 +2285,34 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1433150653503592</v>
+        <v>0.1529402371569731</v>
       </c>
       <c r="E8">
-        <v>0.01903057524552943</v>
+        <v>0.008642948501701626</v>
       </c>
       <c r="F8">
-        <v>0.3634303251255923</v>
+        <v>0.4084993592198039</v>
       </c>
       <c r="G8">
-        <v>0.08252164103720015</v>
+        <v>0.08235760621839704</v>
       </c>
       <c r="H8">
-        <v>0.02018167862810198</v>
+        <v>0.009979407274047482</v>
       </c>
       <c r="I8">
-        <v>0.03790558716768117</v>
+        <v>0.03055729228993414</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.05002261136533347</v>
+        <v>0.04462544944145627</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1477960188197429</v>
+        <v>0.1581427321398718</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.01676599854064759</v>
+        <v>0.006013720363977306</v>
       </c>
       <c r="R8">
-        <v>0.02134693953655383</v>
+        <v>0.01133230327517969</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.00995544295727244</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.08644174733649491</v>
+        <v>0.08690894411865771</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.001286368889490695</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2512,46 +2512,46 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2175217623657677</v>
+        <v>0.2861783757190543</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2111222630476129</v>
+        <v>0.2765378260026318</v>
       </c>
       <c r="G9">
-        <v>0.076358287120858</v>
+        <v>0.07352212972481049</v>
       </c>
       <c r="H9">
-        <v>0.06394699952189668</v>
+        <v>0.05482509903630597</v>
       </c>
       <c r="I9">
-        <v>0.009786927248713266</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02419676503566141</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05021316056731381</v>
+        <v>0.03413570590466146</v>
       </c>
       <c r="L9">
-        <v>0.09664893252489717</v>
+        <v>0.1040890484900023</v>
       </c>
       <c r="M9">
-        <v>0.07964850047738024</v>
+        <v>0.07847868395885886</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02759032533764375</v>
+        <v>5.545104169940038E-05</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.04992606880910338</v>
+        <v>0.03370321545023622</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.001863680160861728</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.004629119783802623</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.0663694871997382</v>
+        <v>0.05847446467173911</v>
       </c>
       <c r="Y9">
-        <v>0.00955135755628969</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.001284495922850228</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.003891319993148007</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.005450547326461153</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2739,46 +2739,46 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.297639405262477</v>
+        <v>0.4135972784561789</v>
       </c>
       <c r="E10">
-        <v>0.01166554811537407</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1710349995472551</v>
+        <v>0.2190693528864083</v>
       </c>
       <c r="G10">
-        <v>0.07139370279168006</v>
+        <v>0.06597029879390551</v>
       </c>
       <c r="H10">
-        <v>0.06942329601751522</v>
+        <v>0.06294276479821594</v>
       </c>
       <c r="I10">
-        <v>0.00175929601856919</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02096087889055879</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02986614035008938</v>
+        <v>0.002163115069962728</v>
       </c>
       <c r="L10">
-        <v>0.1190509253791496</v>
+        <v>0.1391957177355675</v>
       </c>
       <c r="M10">
-        <v>0.02545397788747713</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.04116328919446545</v>
+        <v>0.01952120712951248</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.05360029237991797</v>
+        <v>0.03863068769066033</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2787,22 +2787,22 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.002313002945110616</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.0009109516109801339</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.01156643065230322</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.05378180190262379</v>
+        <v>0.03890957743958852</v>
       </c>
       <c r="Y10">
-        <v>1.957169006299603E-05</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2817,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.001598889207610982</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.001143030739219806</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01565456941755978</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -3086,100 +3086,100 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.2945010927386066</v>
+        <v>0.4393304376375393</v>
       </c>
       <c r="AS11">
-        <v>0.09771066053687859</v>
+        <v>0.1124659025730059</v>
       </c>
       <c r="AT11">
-        <v>0.2057252104147719</v>
+        <v>0.2918756697605208</v>
       </c>
       <c r="AU11">
-        <v>0.01557321129169069</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0.00352068767261901</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0.002273184648482908</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>0.07843114332949198</v>
+        <v>0.08044305289603998</v>
       </c>
       <c r="AY11">
-        <v>0.02072393410740649</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.05774299577384605</v>
+        <v>0.04608049951137756</v>
       </c>
       <c r="BA11">
-        <v>0.0108507835304889</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>2.708553366157931E-05</v>
+        <v>0</v>
       </c>
       <c r="BC11">
-        <v>0.01677939586542765</v>
+        <v>0</v>
       </c>
       <c r="BD11">
-        <v>0.01257204397400565</v>
+        <v>0</v>
       </c>
       <c r="BE11">
-        <v>0.03515048593735561</v>
+        <v>0.008554842694508685</v>
       </c>
       <c r="BF11">
-        <v>0.008932756234424303</v>
+        <v>0</v>
       </c>
       <c r="BG11">
-        <v>0.0007025625441254645</v>
+        <v>0</v>
       </c>
       <c r="BH11">
-        <v>0.01718763237011445</v>
+        <v>0</v>
       </c>
       <c r="BI11">
-        <v>0.002896729489078782</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.002594886153465553</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0.0424554230967461</v>
+        <v>0.02068818099538794</v>
       </c>
       <c r="BL11">
-        <v>0.02249858965191356</v>
+        <v>0</v>
       </c>
       <c r="BM11">
-        <v>0.0001056410992753355</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.002250205809783782</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.0003939916443419537</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.0008161860692180302</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
-        <v>0.002242357746053525</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.0002339532016064927</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>0.005944883694113478</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.001166639490389394</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>0.003642396199683159</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>0.004015248078527668</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>0.0303380020724051</v>
+        <v>0.0005614139316198615</v>
       </c>
     </row>
   </sheetData>
@@ -3553,97 +3553,97 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.1855101302157196</v>
+        <v>0.2535530418597089</v>
       </c>
       <c r="AS2">
-        <v>0.1858436223531875</v>
+        <v>0.2535530418597089</v>
       </c>
       <c r="AT2">
-        <v>0.4790158671077193</v>
+        <v>0.6826448514929196</v>
       </c>
       <c r="AU2">
-        <v>0.5340699838525855</v>
+        <v>0.7234945858668604</v>
       </c>
       <c r="AV2">
-        <v>0.5349420144304213</v>
+        <v>0.7234945858668604</v>
       </c>
       <c r="AW2">
-        <v>0.5625229034663503</v>
+        <v>0.7234945858668604</v>
       </c>
       <c r="AX2">
-        <v>0.6562159868776269</v>
+        <v>0.8273436085765136</v>
       </c>
       <c r="AY2">
-        <v>0.7367824116837181</v>
+        <v>0.9097901399231808</v>
       </c>
       <c r="AZ2">
-        <v>0.7674683397537166</v>
+        <v>0.9109085181819081</v>
       </c>
       <c r="BA2">
-        <v>0.8198832673406343</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BB2">
-        <v>0.8199658476906445</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BC2">
-        <v>0.8199694101285683</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BD2">
-        <v>0.8213400326725576</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BE2">
-        <v>0.8360468306783012</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BF2">
-        <v>0.8362891554032614</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BG2">
-        <v>0.8478382400729431</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BH2">
-        <v>0.859728195251609</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BI2">
-        <v>0.8709859865943539</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BJ2">
-        <v>0.871350137626428</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BK2">
-        <v>0.8889723512500819</v>
+        <v>0.9474551602871154</v>
       </c>
       <c r="BL2">
-        <v>0.9511993551384279</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.9581884142433087</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9645230047237197</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9669044820488392</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9699345422346901</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9705265673379692</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9763597915054425</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9856109035622511</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9856374493599248</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9908948580825548</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9909730747429835</v>
+        <v>1</v>
       </c>
       <c r="BW2">
         <v>1</v>
@@ -3780,97 +3780,97 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.1266888828353377</v>
+        <v>0.1591995486004312</v>
       </c>
       <c r="AS3">
-        <v>0.1366824951256856</v>
+        <v>0.1591995486004312</v>
       </c>
       <c r="AT3">
-        <v>0.4755751891906396</v>
+        <v>0.6677955321206704</v>
       </c>
       <c r="AU3">
-        <v>0.5973135935581138</v>
+        <v>0.8188440512094441</v>
       </c>
       <c r="AV3">
-        <v>0.5973184140761379</v>
+        <v>0.8188440512094441</v>
       </c>
       <c r="AW3">
-        <v>0.6336574712284021</v>
+        <v>0.8292813942379227</v>
       </c>
       <c r="AX3">
-        <v>0.6718357936520181</v>
+        <v>0.8427471123222422</v>
       </c>
       <c r="AY3">
-        <v>0.77607999837688</v>
+        <v>0.9649911959417108</v>
       </c>
       <c r="AZ3">
-        <v>0.8123233762841766</v>
+        <v>0.9752710018039443</v>
       </c>
       <c r="BA3">
-        <v>0.8450984999518851</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BB3">
-        <v>0.845822280882681</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BC3">
-        <v>0.8460140444407332</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BD3">
-        <v>0.8465858714778796</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BE3">
-        <v>0.8532149013646908</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BF3">
-        <v>0.8543311899712861</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BG3">
-        <v>0.866885294978302</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BH3">
-        <v>0.8717653816692077</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BI3">
-        <v>0.8802133624997412</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BJ3">
-        <v>0.8812596165973369</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BK3">
-        <v>0.8866859920175356</v>
+        <v>0.9798402803213305</v>
       </c>
       <c r="BL3">
-        <v>0.9289298758170833</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0.9344960230458307</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0.9487842157091451</v>
+        <v>1</v>
       </c>
       <c r="BO3">
-        <v>0.9638829959705179</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0.9657319938278017</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0.9675414350556834</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.9809629859252095</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0.9867624245676789</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.9885387286683152</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.9964080496040943</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0.9967291347657614</v>
+        <v>1</v>
       </c>
       <c r="BW3">
         <v>1</v>
@@ -4007,100 +4007,100 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.2228868794573051</v>
+        <v>0.3312476051538598</v>
       </c>
       <c r="AS4">
-        <v>0.2231481670530729</v>
+        <v>0.3312476051538598</v>
       </c>
       <c r="AT4">
-        <v>0.498561828938728</v>
+        <v>0.7527002617595479</v>
       </c>
       <c r="AU4">
-        <v>0.5677255231750521</v>
+        <v>0.8199566763029325</v>
       </c>
       <c r="AV4">
-        <v>0.5703786568984068</v>
+        <v>0.8199566763029325</v>
       </c>
       <c r="AW4">
-        <v>0.5992648363084059</v>
+        <v>0.8199566763029325</v>
       </c>
       <c r="AX4">
-        <v>0.6650601230108799</v>
+        <v>0.8814284727742672</v>
       </c>
       <c r="AY4">
-        <v>0.7289455636261682</v>
+        <v>0.9396204611820743</v>
       </c>
       <c r="AZ4">
-        <v>0.7692594203726434</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BA4">
-        <v>0.7957642842093158</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BB4">
-        <v>0.8015335761358247</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BC4">
-        <v>0.8018463605906844</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BD4">
-        <v>0.8025329387106527</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BE4">
-        <v>0.8195476331778454</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BF4">
-        <v>0.8197688404598149</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BG4">
-        <v>0.8300189231556691</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BH4">
-        <v>0.8425884203440869</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BI4">
-        <v>0.8649945780883951</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BJ4">
-        <v>0.8662787561691375</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BK4">
-        <v>0.8799834191573797</v>
+        <v>0.9573326060245962</v>
       </c>
       <c r="BL4">
-        <v>0.9348288228688068</v>
+        <v>1</v>
       </c>
       <c r="BM4">
-        <v>0.9366915221041998</v>
+        <v>1</v>
       </c>
       <c r="BN4">
-        <v>0.9539491768550145</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0.9593236104545479</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0.9619079465073641</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0.9619246779483454</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0.9711691222985434</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0.9776725207700311</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.9781958759113598</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.987686863421842</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.9895411129550546</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:75">
@@ -4234,97 +4234,97 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.2790235863430066</v>
+        <v>0.3957297886641696</v>
       </c>
       <c r="AS5">
-        <v>0.2966660862801558</v>
+        <v>0.3957297886641696</v>
       </c>
       <c r="AT5">
-        <v>0.5809725991294374</v>
+        <v>0.7998548117740312</v>
       </c>
       <c r="AU5">
-        <v>0.6449639550861875</v>
+        <v>0.8538713501538345</v>
       </c>
       <c r="AV5">
-        <v>0.6478061596582861</v>
+        <v>0.8538713501538345</v>
       </c>
       <c r="AW5">
-        <v>0.667987928978411</v>
+        <v>0.8538713501538345</v>
       </c>
       <c r="AX5">
-        <v>0.7345154423210137</v>
+        <v>0.9119181614931644</v>
       </c>
       <c r="AY5">
-        <v>0.8010701889130998</v>
+        <v>0.9700082498899848</v>
       </c>
       <c r="AZ5">
-        <v>0.8411640838507045</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BA5">
-        <v>0.844648986204056</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BB5">
-        <v>0.8459767526064581</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BC5">
-        <v>0.8461784061142444</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BD5">
-        <v>0.8504074032457903</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BE5">
-        <v>0.8588139968045864</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BF5">
-        <v>0.8590576093431447</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BG5">
-        <v>0.8605088202668507</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BH5">
-        <v>0.8668197270407521</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BI5">
-        <v>0.8783923124324072</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BJ5">
-        <v>0.8811488724240102</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BK5">
-        <v>0.8915740665960677</v>
+        <v>0.9860487180605566</v>
       </c>
       <c r="BL5">
-        <v>0.9303532850480579</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>0.9325223637136719</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0.9476926180693527</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.9522840741522394</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.9544172461296913</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.9571703518926059</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.9674242549984164</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9699759892790283</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.9717936751950549</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9813920417155337</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.985006932762665</v>
+        <v>1</v>
       </c>
       <c r="BW5">
         <v>1</v>
@@ -4461,97 +4461,97 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.223246777998668</v>
+        <v>0.30465206320579</v>
       </c>
       <c r="AS6">
-        <v>0.3579493653867806</v>
+        <v>0.4697148890966977</v>
       </c>
       <c r="AT6">
-        <v>0.5761229283739526</v>
+        <v>0.7663690677512145</v>
       </c>
       <c r="AU6">
-        <v>0.5878652034500444</v>
+        <v>0.7663690677512145</v>
       </c>
       <c r="AV6">
-        <v>0.5970611707712615</v>
+        <v>0.7663690677512145</v>
       </c>
       <c r="AW6">
-        <v>0.5975645708664726</v>
+        <v>0.7663690677512145</v>
       </c>
       <c r="AX6">
-        <v>0.7241053391251748</v>
+        <v>0.9185648483902499</v>
       </c>
       <c r="AY6">
-        <v>0.7802759353157048</v>
+        <v>0.9598225925417488</v>
       </c>
       <c r="AZ6">
-        <v>0.8333577859752973</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BA6">
-        <v>0.8365598229530755</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BB6">
-        <v>0.8396594465667706</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BC6">
-        <v>0.8461935128471935</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BD6">
-        <v>0.8472574710639249</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BE6">
-        <v>0.8516613702541969</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BF6">
-        <v>0.8575701439559931</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BG6">
-        <v>0.8580076912223623</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BH6">
-        <v>0.8737934673287591</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BI6">
-        <v>0.8804976911100564</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BJ6">
-        <v>0.8808358820425817</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BK6">
-        <v>0.9096662910585858</v>
+        <v>0.9962109530561025</v>
       </c>
       <c r="BL6">
-        <v>0.9420697578393089</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9445447936586375</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9587560817277878</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9596130131718421</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9655672529852422</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9690138532945008</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9695552878135906</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9757665775003234</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9788551460368965</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9809663532900209</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9815701675797228</v>
+        <v>1</v>
       </c>
       <c r="BW6">
         <v>1</v>
@@ -4568,64 +4568,64 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2141662427798471</v>
+        <v>0.2276000048372286</v>
       </c>
       <c r="E7">
-        <v>0.2141662427798471</v>
+        <v>0.2276000048372286</v>
       </c>
       <c r="F7">
-        <v>0.6013342323802533</v>
+        <v>0.6507534166080644</v>
       </c>
       <c r="G7">
-        <v>0.6889921165191887</v>
+        <v>0.7353540529853383</v>
       </c>
       <c r="H7">
-        <v>0.6889921165191887</v>
+        <v>0.7353540529853383</v>
       </c>
       <c r="I7">
-        <v>0.6889921165191887</v>
+        <v>0.7353540529853383</v>
       </c>
       <c r="J7">
-        <v>0.6889921165191887</v>
+        <v>0.7353540529853383</v>
       </c>
       <c r="K7">
-        <v>0.741593761215072</v>
+        <v>0.7803286902998418</v>
       </c>
       <c r="L7">
-        <v>0.7648801290140362</v>
+        <v>0.7921666548480253</v>
       </c>
       <c r="M7">
-        <v>0.8560725122358428</v>
+        <v>0.8807625302917352</v>
       </c>
       <c r="N7">
-        <v>0.8560725122358428</v>
+        <v>0.8807625302917352</v>
       </c>
       <c r="O7">
-        <v>0.8560725122358428</v>
+        <v>0.8807625302917352</v>
       </c>
       <c r="P7">
-        <v>0.8560725122358428</v>
+        <v>0.8807625302917352</v>
       </c>
       <c r="Q7">
-        <v>0.908449778455919</v>
+        <v>0.9254835402516423</v>
       </c>
       <c r="R7">
-        <v>0.908449778455919</v>
+        <v>0.9254835402516423</v>
       </c>
       <c r="S7">
-        <v>0.9256423583515211</v>
+        <v>0.9304333605612056</v>
       </c>
       <c r="T7">
-        <v>0.9256423583515211</v>
+        <v>0.9304333605612056</v>
       </c>
       <c r="U7">
-        <v>0.9256423583515211</v>
+        <v>0.9304333605612056</v>
       </c>
       <c r="V7">
-        <v>0.9256423583515211</v>
+        <v>0.9304333605612056</v>
       </c>
       <c r="W7">
-        <v>0.9256423583515211</v>
+        <v>0.9304333605612056</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -4795,82 +4795,82 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1433150653503592</v>
+        <v>0.1529402371569731</v>
       </c>
       <c r="E8">
-        <v>0.1623456405958886</v>
+        <v>0.1615831856586747</v>
       </c>
       <c r="F8">
-        <v>0.5257759657214809</v>
+        <v>0.5700825448784786</v>
       </c>
       <c r="G8">
-        <v>0.6082976067586811</v>
+        <v>0.6524401510968757</v>
       </c>
       <c r="H8">
-        <v>0.628479285386783</v>
+        <v>0.6624195583709231</v>
       </c>
       <c r="I8">
-        <v>0.6663848725544642</v>
+        <v>0.6929768506608572</v>
       </c>
       <c r="J8">
-        <v>0.6663848725544642</v>
+        <v>0.6929768506608572</v>
       </c>
       <c r="K8">
-        <v>0.7164074839197977</v>
+        <v>0.7376023001023135</v>
       </c>
       <c r="L8">
-        <v>0.7164074839197977</v>
+        <v>0.7376023001023135</v>
       </c>
       <c r="M8">
-        <v>0.8642035027395406</v>
+        <v>0.8957450322421854</v>
       </c>
       <c r="N8">
-        <v>0.8642035027395406</v>
+        <v>0.8957450322421854</v>
       </c>
       <c r="O8">
-        <v>0.8642035027395406</v>
+        <v>0.8957450322421854</v>
       </c>
       <c r="P8">
-        <v>0.8642035027395406</v>
+        <v>0.8957450322421854</v>
       </c>
       <c r="Q8">
-        <v>0.8809695012801882</v>
+        <v>0.9017587526061627</v>
       </c>
       <c r="R8">
-        <v>0.9023164408167421</v>
+        <v>0.9130910558813423</v>
       </c>
       <c r="S8">
-        <v>0.9023164408167421</v>
+        <v>0.9130910558813423</v>
       </c>
       <c r="T8">
-        <v>0.9023164408167421</v>
+        <v>0.9130910558813423</v>
       </c>
       <c r="U8">
-        <v>0.9122718837740146</v>
+        <v>0.9130910558813423</v>
       </c>
       <c r="V8">
-        <v>0.9122718837740146</v>
+        <v>0.9130910558813423</v>
       </c>
       <c r="W8">
-        <v>0.9122718837740146</v>
+        <v>0.9130910558813423</v>
       </c>
       <c r="X8">
-        <v>0.9987136311105095</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9987136311105095</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9987136311105095</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9987136311105095</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9987136311105095</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9987136311105095</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -5022,220 +5022,220 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2175217623657677</v>
+        <v>0.2861783757190543</v>
       </c>
       <c r="E9">
-        <v>0.2175217623657677</v>
+        <v>0.2861783757190543</v>
       </c>
       <c r="F9">
-        <v>0.4286440254133806</v>
+        <v>0.5627162017216861</v>
       </c>
       <c r="G9">
-        <v>0.5050023125342387</v>
+        <v>0.6362383314464967</v>
       </c>
       <c r="H9">
-        <v>0.5689493120561353</v>
+        <v>0.6910634304828026</v>
       </c>
       <c r="I9">
-        <v>0.5787362393048485</v>
+        <v>0.6910634304828026</v>
       </c>
       <c r="J9">
-        <v>0.6029330043405099</v>
+        <v>0.6910634304828026</v>
       </c>
       <c r="K9">
-        <v>0.6531461649078237</v>
+        <v>0.725199136387464</v>
       </c>
       <c r="L9">
-        <v>0.7497950974327209</v>
+        <v>0.8292881848774664</v>
       </c>
       <c r="M9">
-        <v>0.8294435979101011</v>
+        <v>0.9077668688363252</v>
       </c>
       <c r="N9">
-        <v>0.8294435979101011</v>
+        <v>0.9077668688363252</v>
       </c>
       <c r="O9">
-        <v>0.8570339232477449</v>
+        <v>0.9078223198780245</v>
       </c>
       <c r="P9">
-        <v>0.8570339232477449</v>
+        <v>0.9078223198780245</v>
       </c>
       <c r="Q9">
-        <v>0.9069599920568482</v>
+        <v>0.9415255353282608</v>
       </c>
       <c r="R9">
-        <v>0.9069599920568482</v>
+        <v>0.9415255353282608</v>
       </c>
       <c r="S9">
-        <v>0.9069599920568482</v>
+        <v>0.9415255353282608</v>
       </c>
       <c r="T9">
-        <v>0.9069599920568482</v>
+        <v>0.9415255353282608</v>
       </c>
       <c r="U9">
-        <v>0.9088236722177099</v>
+        <v>0.9415255353282608</v>
       </c>
       <c r="V9">
-        <v>0.9088236722177099</v>
+        <v>0.9415255353282608</v>
       </c>
       <c r="W9">
-        <v>0.9134527920015125</v>
+        <v>0.9415255353282608</v>
       </c>
       <c r="X9">
-        <v>0.9798222792012508</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.9893736367575404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.9893736367575404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.9893736367575404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.9893736367575404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.9893736367575404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.9906581326803906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.9945494526735386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.9945494526735386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.9945494526735386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.9945494526735386</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:75">
@@ -5249,97 +5249,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.297639405262477</v>
+        <v>0.4135972784561789</v>
       </c>
       <c r="E10">
-        <v>0.309304953377851</v>
+        <v>0.4135972784561789</v>
       </c>
       <c r="F10">
-        <v>0.4803399529251061</v>
+        <v>0.6326666313425873</v>
       </c>
       <c r="G10">
-        <v>0.5517336557167862</v>
+        <v>0.6986369301364928</v>
       </c>
       <c r="H10">
-        <v>0.6211569517343014</v>
+        <v>0.7615796949347087</v>
       </c>
       <c r="I10">
-        <v>0.6229162477528706</v>
+        <v>0.7615796949347087</v>
       </c>
       <c r="J10">
-        <v>0.6438771266434293</v>
+        <v>0.7615796949347087</v>
       </c>
       <c r="K10">
-        <v>0.6737432669935187</v>
+        <v>0.7637428100046714</v>
       </c>
       <c r="L10">
-        <v>0.7927941923726683</v>
+        <v>0.9029385277402389</v>
       </c>
       <c r="M10">
-        <v>0.8182481702601455</v>
+        <v>0.9029385277402389</v>
       </c>
       <c r="N10">
-        <v>0.8182481702601455</v>
+        <v>0.9029385277402389</v>
       </c>
       <c r="O10">
-        <v>0.8594114594546109</v>
+        <v>0.9224597348697513</v>
       </c>
       <c r="P10">
-        <v>0.8594114594546109</v>
+        <v>0.9224597348697513</v>
       </c>
       <c r="Q10">
-        <v>0.9130117518345289</v>
+        <v>0.9610904225604117</v>
       </c>
       <c r="R10">
-        <v>0.9130117518345289</v>
+        <v>0.9610904225604117</v>
       </c>
       <c r="S10">
-        <v>0.9130117518345289</v>
+        <v>0.9610904225604117</v>
       </c>
       <c r="T10">
-        <v>0.9153247547796395</v>
+        <v>0.9610904225604117</v>
       </c>
       <c r="U10">
-        <v>0.9153247547796395</v>
+        <v>0.9610904225604117</v>
       </c>
       <c r="V10">
-        <v>0.9162357063906196</v>
+        <v>0.9610904225604117</v>
       </c>
       <c r="W10">
-        <v>0.9278021370429228</v>
+        <v>0.9610904225604117</v>
       </c>
       <c r="X10">
-        <v>0.9815839389455466</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9816035106356096</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9816035106356096</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9816035106356096</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9816035106356096</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9816035106356096</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9832023998432206</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9843454305824404</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9843454305824404</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9843454305824404</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9843454305824404</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -5596,100 +5596,100 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.2945010927386066</v>
+        <v>0.4393304376375393</v>
       </c>
       <c r="AS11">
-        <v>0.3922117532754852</v>
+        <v>0.5517963402105452</v>
       </c>
       <c r="AT11">
-        <v>0.5979369636902571</v>
+        <v>0.843672009971066</v>
       </c>
       <c r="AU11">
-        <v>0.6135101749819477</v>
+        <v>0.843672009971066</v>
       </c>
       <c r="AV11">
-        <v>0.6170308626545667</v>
+        <v>0.843672009971066</v>
       </c>
       <c r="AW11">
-        <v>0.6193040473030497</v>
+        <v>0.843672009971066</v>
       </c>
       <c r="AX11">
-        <v>0.6977351906325416</v>
+        <v>0.924115062867106</v>
       </c>
       <c r="AY11">
-        <v>0.7184591247399481</v>
+        <v>0.924115062867106</v>
       </c>
       <c r="AZ11">
-        <v>0.7762021205137941</v>
+        <v>0.9701955623784836</v>
       </c>
       <c r="BA11">
-        <v>0.787052904044283</v>
+        <v>0.9701955623784836</v>
       </c>
       <c r="BB11">
-        <v>0.7870799895779446</v>
+        <v>0.9701955623784836</v>
       </c>
       <c r="BC11">
-        <v>0.8038593854433722</v>
+        <v>0.9701955623784836</v>
       </c>
       <c r="BD11">
-        <v>0.8164314294173779</v>
+        <v>0.9701955623784836</v>
       </c>
       <c r="BE11">
-        <v>0.8515819153547335</v>
+        <v>0.9787504050729923</v>
       </c>
       <c r="BF11">
-        <v>0.8605146715891578</v>
+        <v>0.9787504050729923</v>
       </c>
       <c r="BG11">
-        <v>0.8612172341332833</v>
+        <v>0.9787504050729923</v>
       </c>
       <c r="BH11">
-        <v>0.8784048665033978</v>
+        <v>0.9787504050729923</v>
       </c>
       <c r="BI11">
-        <v>0.8813015959924766</v>
+        <v>0.9787504050729923</v>
       </c>
       <c r="BJ11">
-        <v>0.8838964821459422</v>
+        <v>0.9787504050729923</v>
       </c>
       <c r="BK11">
-        <v>0.9263519052426883</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BL11">
-        <v>0.9488504948946018</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BM11">
-        <v>0.9489561359938772</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BN11">
-        <v>0.9512063418036609</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BO11">
-        <v>0.9516003334480029</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BP11">
-        <v>0.9524165195172209</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BQ11">
-        <v>0.9546588772632745</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BR11">
-        <v>0.9548928304648809</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BS11">
-        <v>0.9608377141589944</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BT11">
-        <v>0.9620043536493839</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BU11">
-        <v>0.9656467498490671</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BV11">
-        <v>0.9696619979275948</v>
+        <v>0.9994385860683802</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5751,34 +5751,34 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6826448514929196</v>
       </c>
       <c r="F2">
-        <v>0.5340699838525855</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>14</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>99</v>
@@ -5792,34 +5792,34 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6677955321206704</v>
       </c>
       <c r="F3">
-        <v>0.5973135935581138</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>14</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
       </c>
       <c r="L3" t="s">
         <v>99</v>
@@ -5833,34 +5833,34 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>41</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7527002617595479</v>
       </c>
       <c r="F4">
-        <v>0.5677255231750521</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>14</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
@@ -5874,34 +5874,34 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.7998548117740312</v>
+      </c>
+      <c r="F5">
         <v>45</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5809725991294374</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>14</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
       </c>
       <c r="L5" t="s">
         <v>99</v>
@@ -5915,34 +5915,34 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>41</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.7663690677512145</v>
+      </c>
+      <c r="F6">
         <v>45</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5761229283739526</v>
-      </c>
       <c r="G6">
+        <v>700</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>14</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
       </c>
       <c r="L6" t="s">
         <v>99</v>
@@ -5956,34 +5956,34 @@
         <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6507534166080644</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6013342323802533</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7">
         <v>14</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
       </c>
       <c r="L7" t="s">
         <v>99</v>
@@ -5997,34 +5997,34 @@
         <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.5700825448784786</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5257759657214809</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
         <v>14</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -6038,34 +6038,34 @@
         <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5627162017216861</v>
       </c>
       <c r="F9">
-        <v>0.5050023125342387</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
         <v>14</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
       </c>
       <c r="L9" t="s">
         <v>99</v>
@@ -6079,34 +6079,34 @@
         <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6326666313425873</v>
       </c>
       <c r="F10">
-        <v>0.5517336557167862</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
         <v>14</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>99</v>
@@ -6120,34 +6120,34 @@
         <v>84</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5517963402105452</v>
       </c>
       <c r="F11">
-        <v>0.5979369636902571</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>14</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>99</v>
@@ -6215,34 +6215,34 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7234945858668604</v>
       </c>
       <c r="F2">
-        <v>0.7367824116837181</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>14</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>99</v>
@@ -6256,34 +6256,34 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8188440512094441</v>
       </c>
       <c r="F3">
-        <v>0.77607999837688</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>14</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
       </c>
       <c r="L3" t="s">
         <v>99</v>
@@ -6297,34 +6297,34 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>41</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7527002617595479</v>
       </c>
       <c r="F4">
-        <v>0.7289455636261682</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>14</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
@@ -6338,34 +6338,34 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7998548117740312</v>
       </c>
       <c r="F5">
-        <v>0.7345154423210137</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>14</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
       </c>
       <c r="L5" t="s">
         <v>99</v>
@@ -6379,34 +6379,34 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>41</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7663690677512145</v>
       </c>
       <c r="F6">
-        <v>0.7241053391251748</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>14</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
       </c>
       <c r="L6" t="s">
         <v>99</v>
@@ -6420,34 +6420,34 @@
         <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7353540529853383</v>
       </c>
       <c r="F7">
-        <v>0.741593761215072</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7">
         <v>14</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
       </c>
       <c r="L7" t="s">
         <v>99</v>
@@ -6461,34 +6461,34 @@
         <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7376023001023135</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7164074839197977</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
         <v>14</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -6502,34 +6502,34 @@
         <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.725199136387464</v>
       </c>
       <c r="F9">
-        <v>0.7497950974327209</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
         <v>14</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
       </c>
       <c r="L9" t="s">
         <v>99</v>
@@ -6543,34 +6543,34 @@
         <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7615796949347087</v>
       </c>
       <c r="F10">
-        <v>0.7927941923726683</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
         <v>14</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>99</v>
@@ -6584,34 +6584,34 @@
         <v>84</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.843672009971066</v>
       </c>
       <c r="F11">
-        <v>0.7184591247399481</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>14</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>99</v>
@@ -6679,34 +6679,34 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8273436085765136</v>
       </c>
       <c r="F2">
-        <v>0.8198832673406343</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>14</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>99</v>
@@ -6720,34 +6720,34 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8188440512094441</v>
       </c>
       <c r="F3">
-        <v>0.8123233762841766</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>14</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
       </c>
       <c r="L3" t="s">
         <v>99</v>
@@ -6761,34 +6761,34 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>41</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8199566763029325</v>
       </c>
       <c r="F4">
-        <v>0.8015335761358247</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>14</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
@@ -6802,34 +6802,34 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8538713501538345</v>
       </c>
       <c r="F5">
-        <v>0.8010701889130998</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>14</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
       </c>
       <c r="L5" t="s">
         <v>99</v>
@@ -6843,34 +6843,34 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>41</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9185648483902499</v>
       </c>
       <c r="F6">
-        <v>0.8333577859752973</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>14</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
       </c>
       <c r="L6" t="s">
         <v>99</v>
@@ -6884,34 +6884,34 @@
         <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.8807625302917352</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8560725122358428</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7">
         <v>14</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
       </c>
       <c r="L7" t="s">
         <v>99</v>
@@ -6925,34 +6925,34 @@
         <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.8957450322421854</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8642035027395406</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
         <v>14</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -6966,34 +6966,34 @@
         <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8292881848774664</v>
       </c>
       <c r="F9">
-        <v>0.8294435979101011</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
         <v>14</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
       </c>
       <c r="L9" t="s">
         <v>99</v>
@@ -7007,34 +7007,34 @@
         <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9029385277402389</v>
       </c>
       <c r="F10">
-        <v>0.8182481702601455</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
         <v>14</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>99</v>
@@ -7048,34 +7048,34 @@
         <v>84</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.843672009971066</v>
       </c>
       <c r="F11">
-        <v>0.8038593854433722</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>14</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>99</v>
@@ -7143,34 +7143,34 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9097901399231808</v>
       </c>
       <c r="F2">
-        <v>0.9511993551384279</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2">
         <v>14</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>99</v>
@@ -7184,34 +7184,34 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9649911959417108</v>
       </c>
       <c r="F3">
-        <v>0.9289298758170833</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
         <v>14</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
       </c>
       <c r="L3" t="s">
         <v>99</v>
@@ -7225,34 +7225,34 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>41</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9396204611820743</v>
       </c>
       <c r="F4">
-        <v>0.9348288228688068</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
         <v>14</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
@@ -7266,34 +7266,34 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>41</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9119181614931644</v>
       </c>
       <c r="F5">
-        <v>0.9303532850480579</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
         <v>14</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
       </c>
       <c r="L5" t="s">
         <v>99</v>
@@ -7307,34 +7307,34 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>41</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9185648483902499</v>
       </c>
       <c r="F6">
-        <v>0.9096662910585858</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
         <v>14</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
       </c>
       <c r="L6" t="s">
         <v>99</v>
@@ -7348,34 +7348,34 @@
         <v>80</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9254835402516423</v>
+      </c>
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.908449778455919</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7">
         <v>14</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
       </c>
       <c r="L7" t="s">
         <v>99</v>
@@ -7389,34 +7389,34 @@
         <v>81</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9017587526061627</v>
       </c>
       <c r="F8">
-        <v>0.9023164408167421</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
         <v>14</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -7430,34 +7430,34 @@
         <v>82</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9077668688363252</v>
       </c>
       <c r="F9">
-        <v>0.9069599920568482</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9">
         <v>14</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
       </c>
       <c r="L9" t="s">
         <v>99</v>
@@ -7471,34 +7471,34 @@
         <v>83</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9029385277402389</v>
       </c>
       <c r="F10">
-        <v>0.9130117518345289</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10">
         <v>14</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>99</v>
@@ -7512,34 +7512,34 @@
         <v>84</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>41</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.924115062867106</v>
       </c>
       <c r="F11">
-        <v>0.9263519052426883</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11">
         <v>14</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>99</v>
